--- a/Data/Completing college/EducationReport(48).xlsx
+++ b/Data/Completing college/EducationReport(48).xlsx
@@ -326,207 +326,4615 @@
     <row r="4" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">15000</t>
+          <t xml:space="preserve">51000</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B4">
         <is>
-          <t xml:space="preserve">Hawaii</t>
+          <t xml:space="preserve">Virginia</t>
         </is>
       </c>
       <c s="6" t="str" r="C4"/>
       <c s="7" r="D4">
-        <v>0.381197007610896</v>
+        <v>0.123030626119648</v>
       </c>
       <c s="7" r="E4">
-        <v>0.261752932754817</v>
+        <v>0.190900582913752</v>
       </c>
       <c s="7" r="F4">
-        <v>0.199354765997013</v>
+        <v>0.244764660686009</v>
       </c>
       <c s="7" r="G4">
-        <v>0.154286041842944</v>
+        <v>0.294646136544711</v>
       </c>
       <c s="3" t="str" r="H4"/>
       <c s="7" r="I4">
-        <v>0.0974171777290299</v>
+        <v>0.346784724780088</v>
       </c>
       <c s="7" r="J4">
-        <v>0.0729776504230603</v>
+        <v>0.403295967834199</v>
       </c>
     </row>
     <row r="5" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A5">
         <is>
-          <t xml:space="preserve">15001</t>
+          <t xml:space="preserve">51001</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B5">
         <is>
-          <t xml:space="preserve">Hawaii, HI        </t>
+          <t xml:space="preserve">Accomack, VA        </t>
         </is>
       </c>
       <c s="8" r="C5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c s="7" r="D5">
-        <v>0.532129503492652</v>
+        <v>0.0456826440560651</v>
       </c>
       <c s="7" r="E5">
-        <v>0.311410695665127</v>
+        <v>0.0803866700585093</v>
       </c>
       <c s="7" r="F5">
-        <v>0.223089793641941</v>
+        <v>0.0920852007577508</v>
       </c>
       <c s="7" r="G5">
-        <v>0.154419290129774</v>
+        <v>0.135475399706496</v>
       </c>
       <c s="3" t="str" r="H5"/>
       <c s="7" r="I5">
-        <v>0.0942130101440868</v>
+        <v>0.176396683139291</v>
       </c>
       <c s="7" r="J5">
-        <v>0.071752476628994</v>
+        <v>0.210058929448355</v>
       </c>
     </row>
     <row r="6" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A6">
         <is>
-          <t xml:space="preserve">15003</t>
+          <t xml:space="preserve">51003</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B6">
         <is>
-          <t xml:space="preserve">Honolulu, HI        </t>
+          <t xml:space="preserve">Albemarle, VA        </t>
         </is>
       </c>
       <c s="8" r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c s="7" r="D6">
-        <v>0.34001990088452</v>
+        <v>0.210534682846696</v>
       </c>
       <c s="7" r="E6">
-        <v>0.244146759192283</v>
+        <v>0.327382309822447</v>
       </c>
       <c s="7" r="F6">
-        <v>0.187861179699244</v>
+        <v>0.394043038335471</v>
       </c>
       <c s="7" r="G6">
-        <v>0.151531557005369</v>
+        <v>0.476813935781009</v>
       </c>
       <c s="3" t="str" r="H6"/>
       <c s="7" r="I6">
-        <v>0.0962619816713126</v>
+        <v>0.522262132212457</v>
       </c>
       <c s="7" r="J6">
-        <v>0.0725219030154849</v>
+        <v>0.589148512763742</v>
       </c>
     </row>
     <row r="7" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">15005</t>
+          <t xml:space="preserve">51005</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B7">
         <is>
-          <t xml:space="preserve">Kalawao, HI        </t>
+          <t xml:space="preserve">Alleghany, VA        </t>
         </is>
       </c>
       <c s="8" r="C7">
-        <v>3</v>
-      </c>
-      <c s="9" t="str" r="D7"/>
+        <v>6</v>
+      </c>
+      <c s="7" r="D7">
+        <v>0.0599267399267399</v>
+      </c>
       <c s="7" r="E7">
-        <v>0.71830985915493</v>
+        <v>0.0838800374882849</v>
       </c>
       <c s="7" r="F7">
-        <v>0.484615384615385</v>
+        <v>0.0929393187457704</v>
       </c>
       <c s="7" r="G7">
-        <v>0.605442176870748</v>
+        <v>0.135689354275742</v>
       </c>
       <c s="3" t="str" r="H7"/>
       <c s="7" r="I7">
-        <v>0.0769230769230769</v>
+        <v>0.160582705174896</v>
       </c>
       <c s="7" r="J7">
-        <v>0.0638297872340425</v>
+        <v>0.153010331314571</v>
       </c>
     </row>
     <row r="8" ht="20.6" customHeight="0">
       <c s="5" t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">15007</t>
+          <t xml:space="preserve">51007</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B8">
         <is>
-          <t xml:space="preserve">Kauai, HI        </t>
+          <t xml:space="preserve">Amelia, VA        </t>
         </is>
       </c>
       <c s="8" r="C8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c s="7" r="D8">
-        <v>0.566379728419011</v>
+        <v>0.0549614523750311</v>
       </c>
       <c s="7" r="E8">
-        <v>0.358516661624238</v>
+        <v>0.0701789664186608</v>
       </c>
       <c s="7" r="F8">
-        <v>0.268845513693448</v>
+        <v>0.0723911541119558</v>
       </c>
       <c s="7" r="G8">
-        <v>0.167318378267133</v>
+        <v>0.0975735010912826</v>
       </c>
       <c s="3" t="str" r="H8"/>
       <c s="7" r="I8">
-        <v>0.109837427822641</v>
+        <v>0.144606741573034</v>
       </c>
       <c s="7" r="J8">
-        <v>0.0791590423909729</v>
-      </c>
-    </row>
-    <row r="9" ht="20.6" customHeight="0">
+        <v>0.176936711500365</v>
+      </c>
+    </row>
+    <row r="9" ht="20.65" customHeight="0">
       <c s="5" t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">15009</t>
+          <t xml:space="preserve">51009</t>
         </is>
       </c>
       <c s="5" t="inlineStr" r="B9">
         <is>
-          <t xml:space="preserve">Maui, HI        </t>
+          <t xml:space="preserve">Amherst, VA        </t>
         </is>
       </c>
       <c s="8" r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c s="7" r="D9">
-        <v>0.556661531777067</v>
+        <v>0.0502381983542659</v>
       </c>
       <c s="7" r="E9">
-        <v>0.322974868636915</v>
+        <v>0.0909984958926299</v>
       </c>
       <c s="7" r="F9">
-        <v>0.229593476032375</v>
+        <v>0.107441984529208</v>
       </c>
       <c s="7" r="G9">
-        <v>0.166083589887116</v>
+        <v>0.130653266331658</v>
       </c>
       <c s="3" t="str" r="H9"/>
       <c s="7" r="I9">
-        <v>0.102753044724184</v>
+        <v>0.166838126761193</v>
       </c>
       <c s="7" r="J9">
-        <v>0.0744531866676852</v>
-      </c>
-    </row>
-    <row r="10" ht="0.05" customHeight="1"/>
-    <row r="11" ht="5.95" customHeight="1"/>
-    <row r="12" ht="222.75" customHeight="1">
-      <c s="10" t="inlineStr" r="A12">
+        <v>0.218144930093062</v>
+      </c>
+    </row>
+    <row r="10" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A10">
+        <is>
+          <t xml:space="preserve">51011</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B10">
+        <is>
+          <t xml:space="preserve">Appomattox, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C10">
+        <v>2</v>
+      </c>
+      <c s="7" r="D10">
+        <v>0.0430879712746858</v>
+      </c>
+      <c s="7" r="E10">
+        <v>0.0728346456692913</v>
+      </c>
+      <c s="7" r="F10">
+        <v>0.0869618395303327</v>
+      </c>
+      <c s="7" r="G10">
+        <v>0.10508438594629</v>
+      </c>
+      <c s="3" t="str" r="H10"/>
+      <c s="7" r="I10">
+        <v>0.139205625237552</v>
+      </c>
+      <c s="7" r="J10">
+        <v>0.195014533603453</v>
+      </c>
+    </row>
+    <row r="11" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A11">
+        <is>
+          <t xml:space="preserve">51013</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B11">
+        <is>
+          <t xml:space="preserve">Arlington, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C11">
+        <v>1</v>
+      </c>
+      <c s="7" r="D11">
+        <v>0.295954055500344</v>
+      </c>
+      <c s="7" r="E11">
+        <v>0.425191821861588</v>
+      </c>
+      <c s="7" r="F11">
+        <v>0.522969405927999</v>
+      </c>
+      <c s="7" r="G11">
+        <v>0.602208233701132</v>
+      </c>
+      <c s="3" t="str" r="H11"/>
+      <c s="7" r="I11">
+        <v>0.712483374258236</v>
+      </c>
+      <c s="7" r="J11">
+        <v>0.763040633628665</v>
+      </c>
+    </row>
+    <row r="12" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A12">
+        <is>
+          <t xml:space="preserve">51015</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B12">
+        <is>
+          <t xml:space="preserve">Augusta, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C12">
+        <v>3</v>
+      </c>
+      <c s="7" r="D12">
+        <v>0.0625477963372912</v>
+      </c>
+      <c s="7" r="E12">
+        <v>0.0966405890473999</v>
+      </c>
+      <c s="7" r="F12">
+        <v>0.116754888785277</v>
+      </c>
+      <c s="7" r="G12">
+        <v>0.154114319542196</v>
+      </c>
+      <c s="3" t="str" r="H12"/>
+      <c s="7" r="I12">
+        <v>0.198780881487249</v>
+      </c>
+      <c s="7" r="J12">
+        <v>0.225727812323347</v>
+      </c>
+    </row>
+    <row r="13" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A13">
+        <is>
+          <t xml:space="preserve">51017</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B13">
+        <is>
+          <t xml:space="preserve">Bath, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C13">
+        <v>8</v>
+      </c>
+      <c s="7" r="D13">
+        <v>0.0388906598661141</v>
+      </c>
+      <c s="7" r="E13">
+        <v>0.0877955966295189</v>
+      </c>
+      <c s="7" r="F13">
+        <v>0.127570789865872</v>
+      </c>
+      <c s="7" r="G13">
+        <v>0.111201079622132</v>
+      </c>
+      <c s="3" t="str" r="H13"/>
+      <c s="7" r="I13">
+        <v>0.160982658959538</v>
+      </c>
+      <c s="7" r="J13">
+        <v>0.18626274745051</v>
+      </c>
+    </row>
+    <row r="14" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A14">
+        <is>
+          <t xml:space="preserve">51019</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B14">
+        <is>
+          <t xml:space="preserve">Bedford, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C14">
+        <v>2</v>
+      </c>
+      <c s="7" r="D14">
+        <v>0.0389258103892581</v>
+      </c>
+      <c s="7" r="E14">
+        <v>0.102982423335826</v>
+      </c>
+      <c s="7" r="F14">
+        <v>0.155546275177487</v>
+      </c>
+      <c s="7" r="G14">
+        <v>0.209110414259779</v>
+      </c>
+      <c s="3" t="str" r="H14"/>
+      <c s="7" r="I14">
+        <v>0.247256781562309</v>
+      </c>
+      <c s="7" r="J14">
+        <v>0.309643080776456</v>
+      </c>
+    </row>
+    <row r="15" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A15">
+        <is>
+          <t xml:space="preserve">51021</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">Bland, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C15">
+        <v>8</v>
+      </c>
+      <c s="7" r="D15">
+        <v>0.0134838507369081</v>
+      </c>
+      <c s="7" r="E15">
+        <v>0.0518688024408848</v>
+      </c>
+      <c s="7" r="F15">
+        <v>0.0460788657509969</v>
+      </c>
+      <c s="7" r="G15">
+        <v>0.091601523351373</v>
+      </c>
+      <c s="3" t="str" r="H15"/>
+      <c s="7" r="I15">
+        <v>0.112565956615204</v>
+      </c>
+      <c s="7" r="J15">
+        <v>0.13344149259785</v>
+      </c>
+    </row>
+    <row r="16" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A16">
+        <is>
+          <t xml:space="preserve">51023</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B16">
+        <is>
+          <t xml:space="preserve">Botetourt, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C16">
+        <v>2</v>
+      </c>
+      <c s="7" r="D16">
+        <v>0.0493225460571206</v>
+      </c>
+      <c s="7" r="E16">
+        <v>0.108517437821314</v>
+      </c>
+      <c s="7" r="F16">
+        <v>0.136270671419389</v>
+      </c>
+      <c s="7" r="G16">
+        <v>0.196198140696545</v>
+      </c>
+      <c s="3" t="str" r="H16"/>
+      <c s="7" r="I16">
+        <v>0.227024278632261</v>
+      </c>
+      <c s="7" r="J16">
+        <v>0.273767178658044</v>
+      </c>
+    </row>
+    <row r="17" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A17">
+        <is>
+          <t xml:space="preserve">51025</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">Brunswick, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C17">
+        <v>6</v>
+      </c>
+      <c s="7" r="D17">
+        <v>0.0453495440729483</v>
+      </c>
+      <c s="7" r="E17">
+        <v>0.0794392523364486</v>
+      </c>
+      <c s="7" r="F17">
+        <v>0.0700293829578844</v>
+      </c>
+      <c s="7" r="G17">
+        <v>0.10831963684746</v>
+      </c>
+      <c s="3" t="str" r="H17"/>
+      <c s="7" r="I17">
+        <v>0.123460843868002</v>
+      </c>
+      <c s="7" r="J17">
+        <v>0.1611162633842</v>
+      </c>
+    </row>
+    <row r="18" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A18">
+        <is>
+          <t xml:space="preserve">51027</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">Buchanan, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C18">
+        <v>9</v>
+      </c>
+      <c s="7" r="D18">
+        <v>0.0285213404355741</v>
+      </c>
+      <c s="7" r="E18">
+        <v>0.0508241758241758</v>
+      </c>
+      <c s="7" r="F18">
+        <v>0.0644167051934042</v>
+      </c>
+      <c s="7" r="G18">
+        <v>0.0795713755238449</v>
+      </c>
+      <c s="3" t="str" r="H18"/>
+      <c s="7" r="I18">
+        <v>0.0764177428411005</v>
+      </c>
+      <c s="7" r="J18">
+        <v>0.113466975070676</v>
+      </c>
+    </row>
+    <row r="19" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A19">
+        <is>
+          <t xml:space="preserve">51029</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">Buckingham, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C19">
+        <v>3</v>
+      </c>
+      <c s="7" r="D19">
+        <v>0.0495822738830367</v>
+      </c>
+      <c s="7" r="E19">
+        <v>0.067006554989075</v>
+      </c>
+      <c s="7" r="F19">
+        <v>0.0789533820840951</v>
+      </c>
+      <c s="7" r="G19">
+        <v>0.0852841274212797</v>
+      </c>
+      <c s="3" t="str" r="H19"/>
+      <c s="7" r="I19">
+        <v>0.136950286806883</v>
+      </c>
+      <c s="7" r="J19">
+        <v>0.117530511967031</v>
+      </c>
+    </row>
+    <row r="20" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A20">
+        <is>
+          <t xml:space="preserve">51031</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">Campbell, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C20">
+        <v>2</v>
+      </c>
+      <c s="7" r="D20">
+        <v>0.0717145193921915</v>
+      </c>
+      <c s="7" r="E20">
+        <v>0.0966420034149118</v>
+      </c>
+      <c s="7" r="F20">
+        <v>0.129257190818995</v>
+      </c>
+      <c s="7" r="G20">
+        <v>0.145839282654635</v>
+      </c>
+      <c s="3" t="str" r="H20"/>
+      <c s="7" r="I20">
+        <v>0.16454078236093</v>
+      </c>
+      <c s="7" r="J20">
+        <v>0.240159541318709</v>
+      </c>
+    </row>
+    <row r="21" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A21">
+        <is>
+          <t xml:space="preserve">51033</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">Caroline, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C21">
+        <v>1</v>
+      </c>
+      <c s="7" r="D21">
+        <v>0.0465313028764805</v>
+      </c>
+      <c s="7" r="E21">
+        <v>0.0629585564148324</v>
+      </c>
+      <c s="7" r="F21">
+        <v>0.0825910931174089</v>
+      </c>
+      <c s="7" r="G21">
+        <v>0.120739954913141</v>
+      </c>
+      <c s="3" t="str" r="H21"/>
+      <c s="7" r="I21">
+        <v>0.167113540270187</v>
+      </c>
+      <c s="7" r="J21">
+        <v>0.219828606600066</v>
+      </c>
+    </row>
+    <row r="22" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A22">
+        <is>
+          <t xml:space="preserve">51035</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">Carroll, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C22">
+        <v>7</v>
+      </c>
+      <c s="7" r="D22">
+        <v>0.0231256993659082</v>
+      </c>
+      <c s="7" r="E22">
+        <v>0.0582069450137612</v>
+      </c>
+      <c s="7" r="F22">
+        <v>0.0652126380233957</v>
+      </c>
+      <c s="7" r="G22">
+        <v>0.0947824431114919</v>
+      </c>
+      <c s="3" t="str" r="H22"/>
+      <c s="7" r="I22">
+        <v>0.121393080184164</v>
+      </c>
+      <c s="7" r="J22">
+        <v>0.151821214752525</v>
+      </c>
+    </row>
+    <row r="23" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A23">
+        <is>
+          <t xml:space="preserve">51036</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">Charles City, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C23">
+        <v>1</v>
+      </c>
+      <c s="7" r="D23">
+        <v>0.0429645542427497</v>
+      </c>
+      <c s="7" r="E23">
+        <v>0.0836968375136314</v>
+      </c>
+      <c s="7" r="F23">
+        <v>0.0838238756769484</v>
+      </c>
+      <c s="7" r="G23">
+        <v>0.10546955624355</v>
+      </c>
+      <c s="3" t="str" r="H23"/>
+      <c s="7" r="I23">
+        <v>0.140321686078758</v>
+      </c>
+      <c s="7" r="J23">
+        <v>0.155771385879716</v>
+      </c>
+    </row>
+    <row r="24" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A24">
+        <is>
+          <t xml:space="preserve">51037</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">Charlotte, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C24">
+        <v>8</v>
+      </c>
+      <c s="7" r="D24">
+        <v>0.0410084569969683</v>
+      </c>
+      <c s="7" r="E24">
+        <v>0.0666208791208791</v>
+      </c>
+      <c s="7" r="F24">
+        <v>0.0648076426542732</v>
+      </c>
+      <c s="7" r="G24">
+        <v>0.10291715285881</v>
+      </c>
+      <c s="3" t="str" r="H24"/>
+      <c s="7" r="I24">
+        <v>0.146243240133471</v>
+      </c>
+      <c s="7" r="J24">
+        <v>0.151299656694458</v>
+      </c>
+    </row>
+    <row r="25" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A25">
+        <is>
+          <t xml:space="preserve">51041</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B25">
+        <is>
+          <t xml:space="preserve">Chesterfield, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C25">
+        <v>1</v>
+      </c>
+      <c s="7" r="D25">
+        <v>0.134829443447038</v>
+      </c>
+      <c s="7" r="E25">
+        <v>0.233618698533842</v>
+      </c>
+      <c s="7" r="F25">
+        <v>0.292440348906974</v>
+      </c>
+      <c s="7" r="G25">
+        <v>0.326358830678233</v>
+      </c>
+      <c s="3" t="str" r="H25"/>
+      <c s="7" r="I25">
+        <v>0.36393257722915</v>
+      </c>
+      <c s="7" r="J25">
+        <v>0.413545885678263</v>
+      </c>
+    </row>
+    <row r="26" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A26">
+        <is>
+          <t xml:space="preserve">51043</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B26">
+        <is>
+          <t xml:space="preserve">Clarke, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C26">
+        <v>1</v>
+      </c>
+      <c s="7" r="D26">
+        <v>0.0965367965367965</v>
+      </c>
+      <c s="7" r="E26">
+        <v>0.156838143036386</v>
+      </c>
+      <c s="7" r="F26">
+        <v>0.185673215141351</v>
+      </c>
+      <c s="7" r="G26">
+        <v>0.239156960621187</v>
+      </c>
+      <c s="3" t="str" r="H26"/>
+      <c s="7" r="I26">
+        <v>0.311595639246779</v>
+      </c>
+      <c s="7" r="J26">
+        <v>0.35211529521153</v>
+      </c>
+    </row>
+    <row r="27" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A27">
+        <is>
+          <t xml:space="preserve">51045</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B27">
+        <is>
+          <t xml:space="preserve">Craig, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C27">
+        <v>2</v>
+      </c>
+      <c s="7" r="D27">
+        <v>0.0346987951807229</v>
+      </c>
+      <c s="7" r="E27">
+        <v>0.0831659300924066</v>
+      </c>
+      <c s="7" r="F27">
+        <v>0.0767426273458445</v>
+      </c>
+      <c s="7" r="G27">
+        <v>0.108115697837686</v>
+      </c>
+      <c s="3" t="str" r="H27"/>
+      <c s="7" r="I27">
+        <v>0.141280947255113</v>
+      </c>
+      <c s="7" r="J27">
+        <v>0.207337883959044</v>
+      </c>
+    </row>
+    <row r="28" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A28">
+        <is>
+          <t xml:space="preserve">51047</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B28">
+        <is>
+          <t xml:space="preserve">Culpeper, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C28">
+        <v>1</v>
+      </c>
+      <c s="7" r="D28">
+        <v>0.0657986283669615</v>
+      </c>
+      <c s="7" r="E28">
+        <v>0.113742322208244</v>
+      </c>
+      <c s="7" r="F28">
+        <v>0.148679710713685</v>
+      </c>
+      <c s="7" r="G28">
+        <v>0.157150433091745</v>
+      </c>
+      <c s="3" t="str" r="H28"/>
+      <c s="7" r="I28">
+        <v>0.222960879570442</v>
+      </c>
+      <c s="7" r="J28">
+        <v>0.265358581098449</v>
+      </c>
+    </row>
+    <row r="29" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A29">
+        <is>
+          <t xml:space="preserve">51049</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B29">
+        <is>
+          <t xml:space="preserve">Cumberland, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C29">
+        <v>8</v>
+      </c>
+      <c s="7" r="D29">
+        <v>0.0480769230769231</v>
+      </c>
+      <c s="7" r="E29">
+        <v>0.0723553991642841</v>
+      </c>
+      <c s="7" r="F29">
+        <v>0.111587982832618</v>
+      </c>
+      <c s="7" r="G29">
+        <v>0.118389131489568</v>
+      </c>
+      <c s="3" t="str" r="H29"/>
+      <c s="7" r="I29">
+        <v>0.150127608467197</v>
+      </c>
+      <c s="7" r="J29">
+        <v>0.173491975650249</v>
+      </c>
+    </row>
+    <row r="30" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A30">
+        <is>
+          <t xml:space="preserve">51051</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B30">
+        <is>
+          <t xml:space="preserve">Dickenson, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C30">
+        <v>9</v>
+      </c>
+      <c s="7" r="D30">
+        <v>0.0307411907654921</v>
+      </c>
+      <c s="7" r="E30">
+        <v>0.0451500412957695</v>
+      </c>
+      <c s="7" r="F30">
+        <v>0.0595227455536688</v>
+      </c>
+      <c s="7" r="G30">
+        <v>0.066590024761231</v>
+      </c>
+      <c s="3" t="str" r="H30"/>
+      <c s="7" r="I30">
+        <v>0.0998860948041707</v>
+      </c>
+      <c s="7" r="J30">
+        <v>0.104010619133403</v>
+      </c>
+    </row>
+    <row r="31" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A31">
+        <is>
+          <t xml:space="preserve">51053</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B31">
+        <is>
+          <t xml:space="preserve">Dinwiddie, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C31">
+        <v>1</v>
+      </c>
+      <c s="7" r="D31">
+        <v>0.0407301252074219</v>
+      </c>
+      <c s="7" r="E31">
+        <v>0.0663399924613645</v>
+      </c>
+      <c s="7" r="F31">
+        <v>0.0844165119268676</v>
+      </c>
+      <c s="7" r="G31">
+        <v>0.110180824466539</v>
+      </c>
+      <c s="3" t="str" r="H31"/>
+      <c s="7" r="I31">
+        <v>0.140730218855219</v>
+      </c>
+      <c s="7" r="J31">
+        <v>0.175730744076068</v>
+      </c>
+    </row>
+    <row r="32" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A32">
+        <is>
+          <t xml:space="preserve">51057</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B32">
+        <is>
+          <t xml:space="preserve">Essex, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C32">
+        <v>6</v>
+      </c>
+      <c s="7" r="D32">
+        <v>0.0643821391484943</v>
+      </c>
+      <c s="7" r="E32">
+        <v>0.120497348692631</v>
+      </c>
+      <c s="7" r="F32">
+        <v>0.164055920498568</v>
+      </c>
+      <c s="7" r="G32">
+        <v>0.173709585933069</v>
+      </c>
+      <c s="3" t="str" r="H32"/>
+      <c s="7" r="I32">
+        <v>0.147685428721725</v>
+      </c>
+      <c s="7" r="J32">
+        <v>0.158635061213858</v>
+      </c>
+    </row>
+    <row r="33" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A33">
+        <is>
+          <t xml:space="preserve">51059</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B33">
+        <is>
+          <t xml:space="preserve">Fairfax, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C33">
+        <v>1</v>
+      </c>
+      <c s="7" r="D33">
+        <v>0.302675431891148</v>
+      </c>
+      <c s="7" r="E33">
+        <v>0.41777896273013</v>
+      </c>
+      <c s="7" r="F33">
+        <v>0.489926512781593</v>
+      </c>
+      <c s="7" r="G33">
+        <v>0.547827205133818</v>
+      </c>
+      <c s="3" t="str" r="H33"/>
+      <c s="7" r="I33">
+        <v>0.581900614497031</v>
+      </c>
+      <c s="7" r="J33">
+        <v>0.635288956084508</v>
+      </c>
+    </row>
+    <row r="34" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A34">
+        <is>
+          <t xml:space="preserve">51061</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B34">
+        <is>
+          <t xml:space="preserve">Fauquier, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C34">
+        <v>1</v>
+      </c>
+      <c s="7" r="D34">
+        <v>0.0888953026913919</v>
+      </c>
+      <c s="7" r="E34">
+        <v>0.154863258026159</v>
+      </c>
+      <c s="7" r="F34">
+        <v>0.214989511156316</v>
+      </c>
+      <c s="7" r="G34">
+        <v>0.27060230484888</v>
+      </c>
+      <c s="3" t="str" r="H34"/>
+      <c s="7" r="I34">
+        <v>0.320005415406832</v>
+      </c>
+      <c s="7" r="J34">
+        <v>0.376948162375208</v>
+      </c>
+    </row>
+    <row r="35" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A35">
+        <is>
+          <t xml:space="preserve">51063</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B35">
+        <is>
+          <t xml:space="preserve">Floyd, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C35">
+        <v>3</v>
+      </c>
+      <c s="7" r="D35">
+        <v>0.0201606014009909</v>
+      </c>
+      <c s="7" r="E35">
+        <v>0.0758009543285617</v>
+      </c>
+      <c s="7" r="F35">
+        <v>0.103519417475728</v>
+      </c>
+      <c s="7" r="G35">
+        <v>0.125050833672224</v>
+      </c>
+      <c s="3" t="str" r="H35"/>
+      <c s="7" r="I35">
+        <v>0.182017343678686</v>
+      </c>
+      <c s="7" r="J35">
+        <v>0.211495439683359</v>
+      </c>
+    </row>
+    <row r="36" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A36">
+        <is>
+          <t xml:space="preserve">51065</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B36">
+        <is>
+          <t xml:space="preserve">Fluvanna, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C36">
+        <v>3</v>
+      </c>
+      <c s="7" r="D36">
+        <v>0.0489130434782609</v>
+      </c>
+      <c s="7" r="E36">
+        <v>0.112767014406359</v>
+      </c>
+      <c s="7" r="F36">
+        <v>0.162657920310982</v>
+      </c>
+      <c s="7" r="G36">
+        <v>0.244601769911504</v>
+      </c>
+      <c s="3" t="str" r="H36"/>
+      <c s="7" r="I36">
+        <v>0.286336418072945</v>
+      </c>
+      <c s="7" r="J36">
+        <v>0.362689631001852</v>
+      </c>
+    </row>
+    <row r="37" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A37">
+        <is>
+          <t xml:space="preserve">51067</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B37">
+        <is>
+          <t xml:space="preserve">Franklin, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C37">
+        <v>2</v>
+      </c>
+      <c s="7" r="D37">
+        <v>0.0457714245475671</v>
+      </c>
+      <c s="7" r="E37">
+        <v>0.0738194146015375</v>
+      </c>
+      <c s="7" r="F37">
+        <v>0.101021348487176</v>
+      </c>
+      <c s="7" r="G37">
+        <v>0.147773708266489</v>
+      </c>
+      <c s="3" t="str" r="H37"/>
+      <c s="7" r="I37">
+        <v>0.179410807699046</v>
+      </c>
+      <c s="7" r="J37">
+        <v>0.225629462608042</v>
+      </c>
+    </row>
+    <row r="38" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A38">
+        <is>
+          <t xml:space="preserve">51069</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">Frederick, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C38">
+        <v>3</v>
+      </c>
+      <c s="7" r="D38">
+        <v>0.052818263897846</v>
+      </c>
+      <c s="7" r="E38">
+        <v>0.0988462894856164</v>
+      </c>
+      <c s="7" r="F38">
+        <v>0.147438949731311</v>
+      </c>
+      <c s="7" r="G38">
+        <v>0.185658628504494</v>
+      </c>
+      <c s="3" t="str" r="H38"/>
+      <c s="7" r="I38">
+        <v>0.261621642059096</v>
+      </c>
+      <c s="7" r="J38">
+        <v>0.276031104795056</v>
+      </c>
+    </row>
+    <row r="39" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A39">
+        <is>
+          <t xml:space="preserve">51071</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B39">
+        <is>
+          <t xml:space="preserve">Giles, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C39">
+        <v>3</v>
+      </c>
+      <c s="7" r="D39">
+        <v>0.0527748691099476</v>
+      </c>
+      <c s="7" r="E39">
+        <v>0.0723155588020453</v>
+      </c>
+      <c s="7" r="F39">
+        <v>0.0889365121885883</v>
+      </c>
+      <c s="7" r="G39">
+        <v>0.124493927125506</v>
+      </c>
+      <c s="3" t="str" r="H39"/>
+      <c s="7" r="I39">
+        <v>0.161112934996717</v>
+      </c>
+      <c s="7" r="J39">
+        <v>0.185425034838921</v>
+      </c>
+    </row>
+    <row r="40" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A40">
+        <is>
+          <t xml:space="preserve">51073</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B40">
+        <is>
+          <t xml:space="preserve">Gloucester, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C40">
+        <v>1</v>
+      </c>
+      <c s="7" r="D40">
+        <v>0.064716092239028</v>
+      </c>
+      <c s="7" r="E40">
+        <v>0.131906300484653</v>
+      </c>
+      <c s="7" r="F40">
+        <v>0.147194719471947</v>
+      </c>
+      <c s="7" r="G40">
+        <v>0.176298715249431</v>
+      </c>
+      <c s="3" t="str" r="H40"/>
+      <c s="7" r="I40">
+        <v>0.211305726327186</v>
+      </c>
+      <c s="7" r="J40">
+        <v>0.25286134438893</v>
+      </c>
+    </row>
+    <row r="41" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A41">
+        <is>
+          <t xml:space="preserve">51075</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B41">
+        <is>
+          <t xml:space="preserve">Goochland, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C41">
+        <v>1</v>
+      </c>
+      <c s="7" r="D41">
+        <v>0.0507805153281926</v>
+      </c>
+      <c s="7" r="E41">
+        <v>0.133859357696567</v>
+      </c>
+      <c s="7" r="F41">
+        <v>0.192688043152532</v>
+      </c>
+      <c s="7" r="G41">
+        <v>0.294007184846506</v>
+      </c>
+      <c s="3" t="str" r="H41"/>
+      <c s="7" r="I41">
+        <v>0.373835864741546</v>
+      </c>
+      <c s="7" r="J41">
+        <v>0.460702980024015</v>
+      </c>
+    </row>
+    <row r="42" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A42">
+        <is>
+          <t xml:space="preserve">51077</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B42">
+        <is>
+          <t xml:space="preserve">Grayson, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C42">
+        <v>9</v>
+      </c>
+      <c s="7" r="D42">
+        <v>0.027018157952308</v>
+      </c>
+      <c s="7" r="E42">
+        <v>0.0488296239447429</v>
+      </c>
+      <c s="7" r="F42">
+        <v>0.0424247803319428</v>
+      </c>
+      <c s="7" r="G42">
+        <v>0.0803912578327984</v>
+      </c>
+      <c s="3" t="str" r="H42"/>
+      <c s="7" r="I42">
+        <v>0.112299465240642</v>
+      </c>
+      <c s="7" r="J42">
+        <v>0.156024716786818</v>
+      </c>
+    </row>
+    <row r="43" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A43">
+        <is>
+          <t xml:space="preserve">51079</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B43">
+        <is>
+          <t xml:space="preserve">Greene, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C43">
+        <v>3</v>
+      </c>
+      <c s="7" r="D43">
+        <v>0.0237564959168523</v>
+      </c>
+      <c s="7" r="E43">
+        <v>0.104079382579934</v>
+      </c>
+      <c s="7" r="F43">
+        <v>0.126917293233083</v>
+      </c>
+      <c s="7" r="G43">
+        <v>0.198320158102767</v>
+      </c>
+      <c s="3" t="str" r="H43"/>
+      <c s="7" r="I43">
+        <v>0.228329471918191</v>
+      </c>
+      <c s="7" r="J43">
+        <v>0.28586609989373</v>
+      </c>
+    </row>
+    <row r="44" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A44">
+        <is>
+          <t xml:space="preserve">51081</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B44">
+        <is>
+          <t xml:space="preserve">Greensville, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C44">
+        <v>6</v>
+      </c>
+      <c s="7" r="D44">
+        <v>0.0368136439267887</v>
+      </c>
+      <c s="7" r="E44">
+        <v>0.0513544955958119</v>
+      </c>
+      <c s="7" r="F44">
+        <v>0.0526502393192696</v>
+      </c>
+      <c s="7" r="G44">
+        <v>0.10952380952381</v>
+      </c>
+      <c s="3" t="str" r="H44"/>
+      <c s="7" r="I44">
+        <v>0.0813616071428571</v>
+      </c>
+      <c s="7" r="J44">
+        <v>0.10925799863853</v>
+      </c>
+    </row>
+    <row r="45" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A45">
+        <is>
+          <t xml:space="preserve">51083</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B45">
+        <is>
+          <t xml:space="preserve">Halifax, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C45">
+        <v>6</v>
+      </c>
+      <c s="7" r="D45">
+        <v>0.0307798395185557</v>
+      </c>
+      <c s="7" r="E45">
+        <v>0.0504692274116107</v>
+      </c>
+      <c s="7" r="F45">
+        <v>0.0637871706640645</v>
+      </c>
+      <c s="7" r="G45">
+        <v>0.0946573083266214</v>
+      </c>
+      <c s="3" t="str" r="H45"/>
+      <c s="7" r="I45">
+        <v>0.141785797984532</v>
+      </c>
+      <c s="7" r="J45">
+        <v>0.163572381992477</v>
+      </c>
+    </row>
+    <row r="46" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A46">
+        <is>
+          <t xml:space="preserve">51085</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B46">
+        <is>
+          <t xml:space="preserve">Hanover, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C46">
+        <v>1</v>
+      </c>
+      <c s="7" r="D46">
+        <v>0.0755767700875099</v>
+      </c>
+      <c s="7" r="E46">
+        <v>0.124558715779658</v>
+      </c>
+      <c s="7" r="F46">
+        <v>0.189416455237405</v>
+      </c>
+      <c s="7" r="G46">
+        <v>0.28692962103635</v>
+      </c>
+      <c s="3" t="str" r="H46"/>
+      <c s="7" r="I46">
+        <v>0.341323621600645</v>
+      </c>
+      <c s="7" r="J46">
+        <v>0.405439253322084</v>
+      </c>
+    </row>
+    <row r="47" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A47">
+        <is>
+          <t xml:space="preserve">51087</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B47">
+        <is>
+          <t xml:space="preserve">Henrico, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C47">
+        <v>1</v>
+      </c>
+      <c s="7" r="D47">
+        <v>0.143233157469906</v>
+      </c>
+      <c s="7" r="E47">
+        <v>0.208401829747695</v>
+      </c>
+      <c s="7" r="F47">
+        <v>0.280332511562519</v>
+      </c>
+      <c s="7" r="G47">
+        <v>0.349267174969383</v>
+      </c>
+      <c s="3" t="str" r="H47"/>
+      <c s="7" r="I47">
+        <v>0.394880537879697</v>
+      </c>
+      <c s="7" r="J47">
+        <v>0.44948743457762</v>
+      </c>
+    </row>
+    <row r="48" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A48">
+        <is>
+          <t xml:space="preserve">51089</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B48">
+        <is>
+          <t xml:space="preserve">Henry, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C48">
+        <v>4</v>
+      </c>
+      <c s="7" r="D48">
+        <v>0.0413704432007261</v>
+      </c>
+      <c s="7" r="E48">
+        <v>0.0622609623765899</v>
+      </c>
+      <c s="7" r="F48">
+        <v>0.0673021374927787</v>
+      </c>
+      <c s="7" r="G48">
+        <v>0.0942790858383928</v>
+      </c>
+      <c s="3" t="str" r="H48"/>
+      <c s="7" r="I48">
+        <v>0.112339331619537</v>
+      </c>
+      <c s="7" r="J48">
+        <v>0.151481155007079</v>
+      </c>
+    </row>
+    <row r="49" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A49">
+        <is>
+          <t xml:space="preserve">51091</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B49">
+        <is>
+          <t xml:space="preserve">Highland, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C49">
+        <v>8</v>
+      </c>
+      <c s="7" r="D49">
+        <v>0.0628465804066543</v>
+      </c>
+      <c s="7" r="E49">
+        <v>0.0878023133543638</v>
+      </c>
+      <c s="7" r="F49">
+        <v>0.129755080771235</v>
+      </c>
+      <c s="7" r="G49">
+        <v>0.132192846034215</v>
+      </c>
+      <c s="3" t="str" r="H49"/>
+      <c s="7" r="I49">
+        <v>0.236637259989621</v>
+      </c>
+      <c s="7" r="J49">
+        <v>0.280805687203791</v>
+      </c>
+    </row>
+    <row r="50" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A50">
+        <is>
+          <t xml:space="preserve">51093</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B50">
+        <is>
+          <t xml:space="preserve">Isle of Wight, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C50">
+        <v>1</v>
+      </c>
+      <c s="7" r="D50">
+        <v>0.0355415352260778</v>
+      </c>
+      <c s="7" r="E50">
+        <v>0.0932203389830508</v>
+      </c>
+      <c s="7" r="F50">
+        <v>0.104281009879254</v>
+      </c>
+      <c s="7" r="G50">
+        <v>0.174891903980915</v>
+      </c>
+      <c s="3" t="str" r="H50"/>
+      <c s="7" r="I50">
+        <v>0.25841564200766</v>
+      </c>
+      <c s="7" r="J50">
+        <v>0.291346608904583</v>
+      </c>
+    </row>
+    <row r="51" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A51">
+        <is>
+          <t xml:space="preserve">51095</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B51">
+        <is>
+          <t xml:space="preserve">James City, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C51">
+        <v>1</v>
+      </c>
+      <c s="7" r="D51">
+        <v>0.120145757418011</v>
+      </c>
+      <c s="7" r="E51">
+        <v>0.233899556868538</v>
+      </c>
+      <c s="7" r="F51">
+        <v>0.328639710631701</v>
+      </c>
+      <c s="7" r="G51">
+        <v>0.415369249750308</v>
+      </c>
+      <c s="3" t="str" r="H51"/>
+      <c s="7" r="I51">
+        <v>0.453262749838478</v>
+      </c>
+      <c s="7" r="J51">
+        <v>0.504800780903363</v>
+      </c>
+    </row>
+    <row r="52" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A52">
+        <is>
+          <t xml:space="preserve">51097</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B52">
+        <is>
+          <t xml:space="preserve">King and Queen, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C52">
+        <v>8</v>
+      </c>
+      <c s="7" r="D52">
+        <v>0.0590551181102362</v>
+      </c>
+      <c s="7" r="E52">
+        <v>0.0755434782608696</v>
+      </c>
+      <c s="7" r="F52">
+        <v>0.0752688172043011</v>
+      </c>
+      <c s="7" r="G52">
+        <v>0.102938022732147</v>
+      </c>
+      <c s="3" t="str" r="H52"/>
+      <c s="7" r="I52">
+        <v>0.125915660265294</v>
+      </c>
+      <c s="7" r="J52">
+        <v>0.212786259541985</v>
+      </c>
+    </row>
+    <row r="53" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A53">
+        <is>
+          <t xml:space="preserve">51099</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B53">
+        <is>
+          <t xml:space="preserve">King George, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C53">
+        <v>6</v>
+      </c>
+      <c s="7" r="D53">
+        <v>0.137755102040816</v>
+      </c>
+      <c s="7" r="E53">
+        <v>0.191733067729084</v>
+      </c>
+      <c s="7" r="F53">
+        <v>0.203944260746339</v>
+      </c>
+      <c s="7" r="G53">
+        <v>0.236138109784319</v>
+      </c>
+      <c s="3" t="str" r="H53"/>
+      <c s="7" r="I53">
+        <v>0.305814788226849</v>
+      </c>
+      <c s="7" r="J53">
+        <v>0.349045379865163</v>
+      </c>
+    </row>
+    <row r="54" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A54">
+        <is>
+          <t xml:space="preserve">51101</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B54">
+        <is>
+          <t xml:space="preserve">King William, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C54">
+        <v>1</v>
+      </c>
+      <c s="7" r="D54">
+        <v>0.0832721038452119</v>
+      </c>
+      <c s="7" r="E54">
+        <v>0.124305928712162</v>
+      </c>
+      <c s="7" r="F54">
+        <v>0.129601119664101</v>
+      </c>
+      <c s="7" r="G54">
+        <v>0.148102678571429</v>
+      </c>
+      <c s="3" t="str" r="H54"/>
+      <c s="7" r="I54">
+        <v>0.197265625</v>
+      </c>
+      <c s="7" r="J54">
+        <v>0.249213445934757</v>
+      </c>
+    </row>
+    <row r="55" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A55">
+        <is>
+          <t xml:space="preserve">51103</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B55">
+        <is>
+          <t xml:space="preserve">Lancaster, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C55">
+        <v>9</v>
+      </c>
+      <c s="7" r="D55">
+        <v>0.0700556852883061</v>
+      </c>
+      <c s="7" r="E55">
+        <v>0.1429192636614</v>
+      </c>
+      <c s="7" r="F55">
+        <v>0.188575704664505</v>
+      </c>
+      <c s="7" r="G55">
+        <v>0.244881800701278</v>
+      </c>
+      <c s="3" t="str" r="H55"/>
+      <c s="7" r="I55">
+        <v>0.258478357875948</v>
+      </c>
+      <c s="7" r="J55">
+        <v>0.333448434622468</v>
+      </c>
+    </row>
+    <row r="56" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A56">
+        <is>
+          <t xml:space="preserve">51105</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B56">
+        <is>
+          <t xml:space="preserve">Lee, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C56">
+        <v>8</v>
+      </c>
+      <c s="7" r="D56">
+        <v>0.0355456127268208</v>
+      </c>
+      <c s="7" r="E56">
+        <v>0.0621288259479214</v>
+      </c>
+      <c s="7" r="F56">
+        <v>0.0650691359569543</v>
+      </c>
+      <c s="7" r="G56">
+        <v>0.0951943116341792</v>
+      </c>
+      <c s="3" t="str" r="H56"/>
+      <c s="7" r="I56">
+        <v>0.120521172638436</v>
+      </c>
+      <c s="7" r="J56">
+        <v>0.107902646001532</v>
+      </c>
+    </row>
+    <row r="57" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A57">
+        <is>
+          <t xml:space="preserve">51107</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B57">
+        <is>
+          <t xml:space="preserve">Loudoun, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C57">
+        <v>1</v>
+      </c>
+      <c s="7" r="D57">
+        <v>0.124463299938663</v>
+      </c>
+      <c s="7" r="E57">
+        <v>0.23480546157564</v>
+      </c>
+      <c s="7" r="F57">
+        <v>0.327129641409644</v>
+      </c>
+      <c s="7" r="G57">
+        <v>0.471939543840755</v>
+      </c>
+      <c s="3" t="str" r="H57"/>
+      <c s="7" r="I57">
+        <v>0.578672628642436</v>
+      </c>
+      <c s="7" r="J57">
+        <v>0.629780662958576</v>
+      </c>
+    </row>
+    <row r="58" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A58">
+        <is>
+          <t xml:space="preserve">51109</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B58">
+        <is>
+          <t xml:space="preserve">Louisa, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C58">
+        <v>8</v>
+      </c>
+      <c s="7" r="D58">
+        <v>0.0383533623114293</v>
+      </c>
+      <c s="7" r="E58">
+        <v>0.0717861528289412</v>
+      </c>
+      <c s="7" r="F58">
+        <v>0.0867759400726841</v>
+      </c>
+      <c s="7" r="G58">
+        <v>0.139797705825846</v>
+      </c>
+      <c s="3" t="str" r="H58"/>
+      <c s="7" r="I58">
+        <v>0.184520518817776</v>
+      </c>
+      <c s="7" r="J58">
+        <v>0.258228594596587</v>
+      </c>
+    </row>
+    <row r="59" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A59">
+        <is>
+          <t xml:space="preserve">51111</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B59">
+        <is>
+          <t xml:space="preserve">Lunenburg, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C59">
+        <v>9</v>
+      </c>
+      <c s="7" r="D59">
+        <v>0.0417439703153989</v>
+      </c>
+      <c s="7" r="E59">
+        <v>0.0675236806495264</v>
+      </c>
+      <c s="7" r="F59">
+        <v>0.0662666318810331</v>
+      </c>
+      <c s="7" r="G59">
+        <v>0.091671144545943</v>
+      </c>
+      <c s="3" t="str" r="H59"/>
+      <c s="7" r="I59">
+        <v>0.103959324967547</v>
+      </c>
+      <c s="7" r="J59">
+        <v>0.117559181797288</v>
+      </c>
+    </row>
+    <row r="60" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A60">
+        <is>
+          <t xml:space="preserve">51113</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B60">
+        <is>
+          <t xml:space="preserve">Madison, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C60">
+        <v>8</v>
+      </c>
+      <c s="7" r="D60">
+        <v>0.0503819946314268</v>
+      </c>
+      <c s="7" r="E60">
+        <v>0.0991987179487179</v>
+      </c>
+      <c s="7" r="F60">
+        <v>0.153981191222571</v>
+      </c>
+      <c s="7" r="G60">
+        <v>0.193776029615919</v>
+      </c>
+      <c s="3" t="str" r="H60"/>
+      <c s="7" r="I60">
+        <v>0.183614918712145</v>
+      </c>
+      <c s="7" r="J60">
+        <v>0.246675332466753</v>
+      </c>
+    </row>
+    <row r="61" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A61">
+        <is>
+          <t xml:space="preserve">51115</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B61">
+        <is>
+          <t xml:space="preserve">Mathews, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C61">
+        <v>1</v>
+      </c>
+      <c s="7" r="D61">
+        <v>0.0691263782866836</v>
+      </c>
+      <c s="7" r="E61">
+        <v>0.105167062260362</v>
+      </c>
+      <c s="7" r="F61">
+        <v>0.154533636659084</v>
+      </c>
+      <c s="7" r="G61">
+        <v>0.191596881316777</v>
+      </c>
+      <c s="3" t="str" r="H61"/>
+      <c s="7" r="I61">
+        <v>0.258193091231178</v>
+      </c>
+      <c s="7" r="J61">
+        <v>0.298897001708871</v>
+      </c>
+    </row>
+    <row r="62" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A62">
+        <is>
+          <t xml:space="preserve">51117</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B62">
+        <is>
+          <t xml:space="preserve">Mecklenburg, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C62">
+        <v>7</v>
+      </c>
+      <c s="7" r="D62">
+        <v>0.0533998752339364</v>
+      </c>
+      <c s="7" r="E62">
+        <v>0.085018230029831</v>
+      </c>
+      <c s="7" r="F62">
+        <v>0.0995540858760459</v>
+      </c>
+      <c s="7" r="G62">
+        <v>0.120838953918454</v>
+      </c>
+      <c s="3" t="str" r="H62"/>
+      <c s="7" r="I62">
+        <v>0.137399773309265</v>
+      </c>
+      <c s="7" r="J62">
+        <v>0.223480307268771</v>
+      </c>
+    </row>
+    <row r="63" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A63">
+        <is>
+          <t xml:space="preserve">51119</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B63">
+        <is>
+          <t xml:space="preserve">Middlesex, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C63">
+        <v>8</v>
+      </c>
+      <c s="7" r="D63">
+        <v>0.0781532112458086</v>
+      </c>
+      <c s="7" r="E63">
+        <v>0.105798771121352</v>
+      </c>
+      <c s="7" r="F63">
+        <v>0.146998582007248</v>
+      </c>
+      <c s="7" r="G63">
+        <v>0.189349112426036</v>
+      </c>
+      <c s="3" t="str" r="H63"/>
+      <c s="7" r="I63">
+        <v>0.287715133531157</v>
+      </c>
+      <c s="7" r="J63">
+        <v>0.271272813462906</v>
+      </c>
+    </row>
+    <row r="64" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A64">
+        <is>
+          <t xml:space="preserve">51121</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B64">
+        <is>
+          <t xml:space="preserve">Montgomery, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C64">
+        <v>3</v>
+      </c>
+      <c s="7" r="D64">
+        <v>0.173059382650857</v>
+      </c>
+      <c s="7" r="E64">
+        <v>0.268245260745782</v>
+      </c>
+      <c s="7" r="F64">
+        <v>0.31636794939378</v>
+      </c>
+      <c s="7" r="G64">
+        <v>0.358836356887672</v>
+      </c>
+      <c s="3" t="str" r="H64"/>
+      <c s="7" r="I64">
+        <v>0.410429423138898</v>
+      </c>
+      <c s="7" r="J64">
+        <v>0.458992958119341</v>
+      </c>
+    </row>
+    <row r="65" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A65">
+        <is>
+          <t xml:space="preserve">51125</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B65">
+        <is>
+          <t xml:space="preserve">Nelson, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C65">
+        <v>3</v>
+      </c>
+      <c s="7" r="D65">
+        <v>0.0433147841780719</v>
+      </c>
+      <c s="7" r="E65">
+        <v>0.10140549060817</v>
+      </c>
+      <c s="7" r="F65">
+        <v>0.134225883968417</v>
+      </c>
+      <c s="7" r="G65">
+        <v>0.207824665961742</v>
+      </c>
+      <c s="3" t="str" r="H65"/>
+      <c s="7" r="I65">
+        <v>0.238885381910001</v>
+      </c>
+      <c s="7" r="J65">
+        <v>0.302842794368218</v>
+      </c>
+    </row>
+    <row r="66" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A66">
+        <is>
+          <t xml:space="preserve">51127</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B66">
+        <is>
+          <t xml:space="preserve">New Kent, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C66">
+        <v>1</v>
+      </c>
+      <c s="7" r="D66">
+        <v>0.0351851851851852</v>
+      </c>
+      <c s="7" r="E66">
+        <v>0.0911533294952984</v>
+      </c>
+      <c s="7" r="F66">
+        <v>0.134433285509326</v>
+      </c>
+      <c s="7" r="G66">
+        <v>0.163274098007539</v>
+      </c>
+      <c s="3" t="str" r="H66"/>
+      <c s="7" r="I66">
+        <v>0.231657299103752</v>
+      </c>
+      <c s="7" r="J66">
+        <v>0.32764691597863</v>
+      </c>
+    </row>
+    <row r="67" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A67">
+        <is>
+          <t xml:space="preserve">51131</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B67">
+        <is>
+          <t xml:space="preserve">Northampton, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C67">
+        <v>8</v>
+      </c>
+      <c s="7" r="D67">
+        <v>0.0535457594633445</v>
+      </c>
+      <c s="7" r="E67">
+        <v>0.0869565217391304</v>
+      </c>
+      <c s="7" r="F67">
+        <v>0.123794394644276</v>
+      </c>
+      <c s="7" r="G67">
+        <v>0.157232015766999</v>
+      </c>
+      <c s="3" t="str" r="H67"/>
+      <c s="7" r="I67">
+        <v>0.195554088257951</v>
+      </c>
+      <c s="7" r="J67">
+        <v>0.280827191728083</v>
+      </c>
+    </row>
+    <row r="68" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A68">
+        <is>
+          <t xml:space="preserve">51133</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B68">
+        <is>
+          <t xml:space="preserve">Northumberland, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C68">
+        <v>9</v>
+      </c>
+      <c s="7" r="D68">
+        <v>0.0651558073654391</v>
+      </c>
+      <c s="7" r="E68">
+        <v>0.105239520958084</v>
+      </c>
+      <c s="7" r="F68">
+        <v>0.134937908078351</v>
+      </c>
+      <c s="7" r="G68">
+        <v>0.216758125791473</v>
+      </c>
+      <c s="3" t="str" r="H68"/>
+      <c s="7" r="I68">
+        <v>0.221714285714286</v>
+      </c>
+      <c s="7" r="J68">
+        <v>0.338562372407865</v>
+      </c>
+    </row>
+    <row r="69" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A69">
+        <is>
+          <t xml:space="preserve">51135</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B69">
+        <is>
+          <t xml:space="preserve">Nottoway, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C69">
+        <v>6</v>
+      </c>
+      <c s="7" r="D69">
+        <v>0.060823115211849</v>
+      </c>
+      <c s="7" r="E69">
+        <v>0.0877746356319339</v>
+      </c>
+      <c s="7" r="F69">
+        <v>0.087995337995338</v>
+      </c>
+      <c s="7" r="G69">
+        <v>0.111059865326077</v>
+      </c>
+      <c s="3" t="str" r="H69"/>
+      <c s="7" r="I69">
+        <v>0.111251808972504</v>
+      </c>
+      <c s="7" r="J69">
+        <v>0.163238162794822</v>
+      </c>
+    </row>
+    <row r="70" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A70">
+        <is>
+          <t xml:space="preserve">51137</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B70">
+        <is>
+          <t xml:space="preserve">Orange, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C70">
+        <v>6</v>
+      </c>
+      <c s="7" r="D70">
+        <v>0.0632324533161623</v>
+      </c>
+      <c s="7" r="E70">
+        <v>0.112468331523706</v>
+      </c>
+      <c s="7" r="F70">
+        <v>0.160533038735069</v>
+      </c>
+      <c s="7" r="G70">
+        <v>0.184979672563455</v>
+      </c>
+      <c s="3" t="str" r="H70"/>
+      <c s="7" r="I70">
+        <v>0.224146649810367</v>
+      </c>
+      <c s="7" r="J70">
+        <v>0.26120218579235</v>
+      </c>
+    </row>
+    <row r="71" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A71">
+        <is>
+          <t xml:space="preserve">51139</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B71">
+        <is>
+          <t xml:space="preserve">Page, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C71">
+        <v>6</v>
+      </c>
+      <c s="7" r="D71">
+        <v>0.0395348837209302</v>
+      </c>
+      <c s="7" r="E71">
+        <v>0.0606818371259482</v>
+      </c>
+      <c s="7" r="F71">
+        <v>0.0785050560262367</v>
+      </c>
+      <c s="7" r="G71">
+        <v>0.0977308050979173</v>
+      </c>
+      <c s="3" t="str" r="H71"/>
+      <c s="7" r="I71">
+        <v>0.116085555230003</v>
+      </c>
+      <c s="7" r="J71">
+        <v>0.146073238139106</v>
+      </c>
+    </row>
+    <row r="72" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A72">
+        <is>
+          <t xml:space="preserve">51141</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B72">
+        <is>
+          <t xml:space="preserve">Patrick, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C72">
+        <v>8</v>
+      </c>
+      <c s="7" r="D72">
+        <v>0.027089072543618</v>
+      </c>
+      <c s="7" r="E72">
+        <v>0.0596756559766764</v>
+      </c>
+      <c s="7" r="F72">
+        <v>0.069823568575233</v>
+      </c>
+      <c s="7" r="G72">
+        <v>0.086138255519363</v>
+      </c>
+      <c s="3" t="str" r="H72"/>
+      <c s="7" r="I72">
+        <v>0.0937819296453073</v>
+      </c>
+      <c s="7" r="J72">
+        <v>0.163977900552486</v>
+      </c>
+    </row>
+    <row r="73" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A73">
+        <is>
+          <t xml:space="preserve">51143</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B73">
+        <is>
+          <t xml:space="preserve">Pittsylvania, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C73">
+        <v>4</v>
+      </c>
+      <c s="7" r="D73">
+        <v>0.0327146697761798</v>
+      </c>
+      <c s="7" r="E73">
+        <v>0.0568659624653882</v>
+      </c>
+      <c s="7" r="F73">
+        <v>0.0738854186214847</v>
+      </c>
+      <c s="7" r="G73">
+        <v>0.0926020408163265</v>
+      </c>
+      <c s="3" t="str" r="H73"/>
+      <c s="7" r="I73">
+        <v>0.138715854812793</v>
+      </c>
+      <c s="7" r="J73">
+        <v>0.142432839790762</v>
+      </c>
+    </row>
+    <row r="74" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A74">
+        <is>
+          <t xml:space="preserve">51145</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B74">
+        <is>
+          <t xml:space="preserve">Powhatan, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C74">
+        <v>1</v>
+      </c>
+      <c s="7" r="D74">
+        <v>0.0589761736258552</v>
+      </c>
+      <c s="7" r="E74">
+        <v>0.0883194588969823</v>
+      </c>
+      <c s="7" r="F74">
+        <v>0.121564482029598</v>
+      </c>
+      <c s="7" r="G74">
+        <v>0.191421711764324</v>
+      </c>
+      <c s="3" t="str" r="H74"/>
+      <c s="7" r="I74">
+        <v>0.252206432311144</v>
+      </c>
+      <c s="7" r="J74">
+        <v>0.310694665957824</v>
+      </c>
+    </row>
+    <row r="75" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A75">
+        <is>
+          <t xml:space="preserve">51147</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B75">
+        <is>
+          <t xml:space="preserve">Prince Edward, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C75">
+        <v>6</v>
+      </c>
+      <c s="7" r="D75">
+        <v>0.118316268486917</v>
+      </c>
+      <c s="7" r="E75">
+        <v>0.151135288552507</v>
+      </c>
+      <c s="7" r="F75">
+        <v>0.142312982753148</v>
+      </c>
+      <c s="7" r="G75">
+        <v>0.191721525836414</v>
+      </c>
+      <c s="3" t="str" r="H75"/>
+      <c s="7" r="I75">
+        <v>0.206519244012549</v>
+      </c>
+      <c s="7" r="J75">
+        <v>0.249960197420793</v>
+      </c>
+    </row>
+    <row r="76" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A76">
+        <is>
+          <t xml:space="preserve">51149</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B76">
+        <is>
+          <t xml:space="preserve">Prince George, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C76">
+        <v>1</v>
+      </c>
+      <c s="7" r="D76">
+        <v>0.104726002206694</v>
+      </c>
+      <c s="7" r="E76">
+        <v>0.146357034554305</v>
+      </c>
+      <c s="7" r="F76">
+        <v>0.161878621530955</v>
+      </c>
+      <c s="7" r="G76">
+        <v>0.193764798737174</v>
+      </c>
+      <c s="3" t="str" r="H76"/>
+      <c s="7" r="I76">
+        <v>0.176084907593329</v>
+      </c>
+      <c s="7" r="J76">
+        <v>0.244015364565471</v>
+      </c>
+    </row>
+    <row r="77" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A77">
+        <is>
+          <t xml:space="preserve">51153</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B77">
+        <is>
+          <t xml:space="preserve">Prince William, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C77">
+        <v>1</v>
+      </c>
+      <c s="7" r="D77">
+        <v>0.126073971033467</v>
+      </c>
+      <c s="7" r="E77">
+        <v>0.229097079336237</v>
+      </c>
+      <c s="7" r="F77">
+        <v>0.276337108667989</v>
+      </c>
+      <c s="7" r="G77">
+        <v>0.314624279484152</v>
+      </c>
+      <c s="3" t="str" r="H77"/>
+      <c s="7" r="I77">
+        <v>0.377158402100377</v>
+      </c>
+      <c s="7" r="J77">
+        <v>0.427441158799404</v>
+      </c>
+    </row>
+    <row r="78" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A78">
+        <is>
+          <t xml:space="preserve">51155</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B78">
+        <is>
+          <t xml:space="preserve">Pulaski, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C78">
+        <v>3</v>
+      </c>
+      <c s="7" r="D78">
+        <v>0.0566199424618963</v>
+      </c>
+      <c s="7" r="E78">
+        <v>0.0882076358848975</v>
+      </c>
+      <c s="7" r="F78">
+        <v>0.114911903738719</v>
+      </c>
+      <c s="7" r="G78">
+        <v>0.124714139263465</v>
+      </c>
+      <c s="3" t="str" r="H78"/>
+      <c s="7" r="I78">
+        <v>0.154194303550527</v>
+      </c>
+      <c s="7" r="J78">
+        <v>0.196490952623935</v>
+      </c>
+    </row>
+    <row r="79" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A79">
+        <is>
+          <t xml:space="preserve">51157</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B79">
+        <is>
+          <t xml:space="preserve">Rappahannock, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C79">
+        <v>1</v>
+      </c>
+      <c s="7" r="D79">
+        <v>0.0310686241037897</v>
+      </c>
+      <c s="7" r="E79">
+        <v>0.111770779556014</v>
+      </c>
+      <c s="7" r="F79">
+        <v>0.189370932754881</v>
+      </c>
+      <c s="7" r="G79">
+        <v>0.229294326942083</v>
+      </c>
+      <c s="3" t="str" r="H79"/>
+      <c s="7" r="I79">
+        <v>0.341454611081032</v>
+      </c>
+      <c s="7" r="J79">
+        <v>0.318319387573438</v>
+      </c>
+    </row>
+    <row r="80" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A80">
+        <is>
+          <t xml:space="preserve">51159</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B80">
+        <is>
+          <t xml:space="preserve">Richmond, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C80">
+        <v>9</v>
+      </c>
+      <c s="7" r="D80">
+        <v>0.0536185174333431</v>
+      </c>
+      <c s="7" r="E80">
+        <v>0.0910550458715596</v>
+      </c>
+      <c s="7" r="F80">
+        <v>0.117564870259481</v>
+      </c>
+      <c s="7" r="G80">
+        <v>0.0992063492063492</v>
+      </c>
+      <c s="3" t="str" r="H80"/>
+      <c s="7" r="I80">
+        <v>0.102968328362449</v>
+      </c>
+      <c s="7" r="J80">
+        <v>0.174690909090909</v>
+      </c>
+    </row>
+    <row r="81" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A81">
+        <is>
+          <t xml:space="preserve">51161</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B81">
+        <is>
+          <t xml:space="preserve">Roanoke, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C81">
+        <v>2</v>
+      </c>
+      <c s="7" r="D81">
+        <v>0.114008719906843</v>
+      </c>
+      <c s="7" r="E81">
+        <v>0.176612457130214</v>
+      </c>
+      <c s="7" r="F81">
+        <v>0.225981950851912</v>
+      </c>
+      <c s="7" r="G81">
+        <v>0.282223428938145</v>
+      </c>
+      <c s="3" t="str" r="H81"/>
+      <c s="7" r="I81">
+        <v>0.325853480188291</v>
+      </c>
+      <c s="7" r="J81">
+        <v>0.374080776743652</v>
+      </c>
+    </row>
+    <row r="82" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A82">
+        <is>
+          <t xml:space="preserve">51163</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B82">
+        <is>
+          <t xml:space="preserve">Rockbridge, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C82">
+        <v>6</v>
+      </c>
+      <c s="7" r="D82">
+        <v>0.0666956805570667</v>
+      </c>
+      <c s="7" r="E82">
+        <v>0.123310044460575</v>
+      </c>
+      <c s="7" r="F82">
+        <v>0.128990648178007</v>
+      </c>
+      <c s="7" r="G82">
+        <v>0.187001923605386</v>
+      </c>
+      <c s="3" t="str" r="H82"/>
+      <c s="7" r="I82">
+        <v>0.225388441933305</v>
+      </c>
+      <c s="7" r="J82">
+        <v>0.281781281251838</v>
+      </c>
+    </row>
+    <row r="83" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A83">
+        <is>
+          <t xml:space="preserve">51165</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B83">
+        <is>
+          <t xml:space="preserve">Rockingham, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C83">
+        <v>3</v>
+      </c>
+      <c s="7" r="D83">
+        <v>0.0773913043478261</v>
+      </c>
+      <c s="7" r="E83">
+        <v>0.117386690920115</v>
+      </c>
+      <c s="7" r="F83">
+        <v>0.14622528539876</v>
+      </c>
+      <c s="7" r="G83">
+        <v>0.176251579017353</v>
+      </c>
+      <c s="3" t="str" r="H83"/>
+      <c s="7" r="I83">
+        <v>0.233011025636057</v>
+      </c>
+      <c s="7" r="J83">
+        <v>0.27682448522202</v>
+      </c>
+    </row>
+    <row r="84" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A84">
+        <is>
+          <t xml:space="preserve">51167</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B84">
+        <is>
+          <t xml:space="preserve">Russell, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C84">
+        <v>7</v>
+      </c>
+      <c s="7" r="D84">
+        <v>0.0311141615191032</v>
+      </c>
+      <c s="7" r="E84">
+        <v>0.058865209571047</v>
+      </c>
+      <c s="7" r="F84">
+        <v>0.0672964653433818</v>
+      </c>
+      <c s="7" r="G84">
+        <v>0.0936241924913398</v>
+      </c>
+      <c s="3" t="str" r="H84"/>
+      <c s="7" r="I84">
+        <v>0.0973196272456528</v>
+      </c>
+      <c s="7" r="J84">
+        <v>0.121731898747336</v>
+      </c>
+    </row>
+    <row r="85" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A85">
+        <is>
+          <t xml:space="preserve">51169</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B85">
+        <is>
+          <t xml:space="preserve">Scott, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C85">
+        <v>2</v>
+      </c>
+      <c s="7" r="D85">
+        <v>0.0326001289675432</v>
+      </c>
+      <c s="7" r="E85">
+        <v>0.0494289217267858</v>
+      </c>
+      <c s="7" r="F85">
+        <v>0.0592303822937626</v>
+      </c>
+      <c s="7" r="G85">
+        <v>0.0833432268787843</v>
+      </c>
+      <c s="3" t="str" r="H85"/>
+      <c s="7" r="I85">
+        <v>0.110795790469434</v>
+      </c>
+      <c s="7" r="J85">
+        <v>0.140486106794306</v>
+      </c>
+    </row>
+    <row r="86" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A86">
+        <is>
+          <t xml:space="preserve">51171</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B86">
+        <is>
+          <t xml:space="preserve">Shenandoah, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C86">
+        <v>6</v>
+      </c>
+      <c s="7" r="D86">
+        <v>0.0511607274878013</v>
+      </c>
+      <c s="7" r="E86">
+        <v>0.0893746066258511</v>
+      </c>
+      <c s="7" r="F86">
+        <v>0.111590148144751</v>
+      </c>
+      <c s="7" r="G86">
+        <v>0.146874749257803</v>
+      </c>
+      <c s="3" t="str" r="H86"/>
+      <c s="7" r="I86">
+        <v>0.184012370579535</v>
+      </c>
+      <c s="7" r="J86">
+        <v>0.204031823512631</v>
+      </c>
+    </row>
+    <row r="87" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A87">
+        <is>
+          <t xml:space="preserve">51173</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B87">
+        <is>
+          <t xml:space="preserve">Smyth, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C87">
+        <v>7</v>
+      </c>
+      <c s="7" r="D87">
+        <v>0.0461801911285422</v>
+      </c>
+      <c s="7" r="E87">
+        <v>0.0732468545791476</v>
+      </c>
+      <c s="7" r="F87">
+        <v>0.0783753914164671</v>
+      </c>
+      <c s="7" r="G87">
+        <v>0.106213717480112</v>
+      </c>
+      <c s="3" t="str" r="H87"/>
+      <c s="7" r="I87">
+        <v>0.142551892551893</v>
+      </c>
+      <c s="7" r="J87">
+        <v>0.159640887754637</v>
+      </c>
+    </row>
+    <row r="88" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A88">
+        <is>
+          <t xml:space="preserve">51175</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B88">
+        <is>
+          <t xml:space="preserve">Southampton, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C88">
+        <v>6</v>
+      </c>
+      <c s="7" r="D88">
+        <v>0.0449878268233302</v>
+      </c>
+      <c s="7" r="E88">
+        <v>0.0880066629650194</v>
+      </c>
+      <c s="7" r="F88">
+        <v>0.11446671873644</v>
+      </c>
+      <c s="7" r="G88">
+        <v>0.117315658657829</v>
+      </c>
+      <c s="3" t="str" r="H88"/>
+      <c s="7" r="I88">
+        <v>0.122057936028968</v>
+      </c>
+      <c s="7" r="J88">
+        <v>0.192844872656658</v>
+      </c>
+    </row>
+    <row r="89" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A89">
+        <is>
+          <t xml:space="preserve">51177</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B89">
+        <is>
+          <t xml:space="preserve">Spotsylvania, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C89">
+        <v>1</v>
+      </c>
+      <c s="7" r="D89">
+        <v>0.0540228558236177</v>
+      </c>
+      <c s="7" r="E89">
+        <v>0.129480807867188</v>
+      </c>
+      <c s="7" r="F89">
+        <v>0.189736683762643</v>
+      </c>
+      <c s="7" r="G89">
+        <v>0.228276799745731</v>
+      </c>
+      <c s="3" t="str" r="H89"/>
+      <c s="7" r="I89">
+        <v>0.290124398992597</v>
+      </c>
+      <c s="7" r="J89">
+        <v>0.334526865253122</v>
+      </c>
+    </row>
+    <row r="90" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A90">
+        <is>
+          <t xml:space="preserve">51179</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B90">
+        <is>
+          <t xml:space="preserve">Stafford, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C90">
+        <v>1</v>
+      </c>
+      <c s="7" r="D90">
+        <v>0.0727842738518895</v>
+      </c>
+      <c s="7" r="E90">
+        <v>0.150356273112654</v>
+      </c>
+      <c s="7" r="F90">
+        <v>0.216221431919058</v>
+      </c>
+      <c s="7" r="G90">
+        <v>0.296382230630566</v>
+      </c>
+      <c s="3" t="str" r="H90"/>
+      <c s="7" r="I90">
+        <v>0.354799984994185</v>
+      </c>
+      <c s="7" r="J90">
+        <v>0.423085083810736</v>
+      </c>
+    </row>
+    <row r="91" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A91">
+        <is>
+          <t xml:space="preserve">51181</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B91">
+        <is>
+          <t xml:space="preserve">Surry, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C91">
+        <v>8</v>
+      </c>
+      <c s="7" r="D91">
+        <v>0.0401579986833443</v>
+      </c>
+      <c s="7" r="E91">
+        <v>0.0718991692924663</v>
+      </c>
+      <c s="7" r="F91">
+        <v>0.11047807778053</v>
+      </c>
+      <c s="7" r="G91">
+        <v>0.128255635806522</v>
+      </c>
+      <c s="3" t="str" r="H91"/>
+      <c s="7" r="I91">
+        <v>0.156614189327336</v>
+      </c>
+      <c s="7" r="J91">
+        <v>0.226262626262626</v>
+      </c>
+    </row>
+    <row r="92" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A92">
+        <is>
+          <t xml:space="preserve">51183</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B92">
+        <is>
+          <t xml:space="preserve">Sussex, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C92">
+        <v>1</v>
+      </c>
+      <c s="7" r="D92">
+        <v>0.0612317550729797</v>
+      </c>
+      <c s="7" r="E92">
+        <v>0.0811703633789523</v>
+      </c>
+      <c s="7" r="F92">
+        <v>0.0861300861300861</v>
+      </c>
+      <c s="7" r="G92">
+        <v>0.100011237217665</v>
+      </c>
+      <c s="3" t="str" r="H92"/>
+      <c s="7" r="I92">
+        <v>0.0945121951219512</v>
+      </c>
+      <c s="7" r="J92">
+        <v>0.131931636542481</v>
+      </c>
+    </row>
+    <row r="93" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A93">
+        <is>
+          <t xml:space="preserve">51185</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B93">
+        <is>
+          <t xml:space="preserve">Tazewell, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C93">
+        <v>5</v>
+      </c>
+      <c s="7" r="D93">
+        <v>0.0405709302859241</v>
+      </c>
+      <c s="7" r="E93">
+        <v>0.0757658643326039</v>
+      </c>
+      <c s="7" r="F93">
+        <v>0.0909423179160021</v>
+      </c>
+      <c s="7" r="G93">
+        <v>0.110031638490301</v>
+      </c>
+      <c s="3" t="str" r="H93"/>
+      <c s="7" r="I93">
+        <v>0.132960652294768</v>
+      </c>
+      <c s="7" r="J93">
+        <v>0.162476280834915</v>
+      </c>
+    </row>
+    <row r="94" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A94">
+        <is>
+          <t xml:space="preserve">51187</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B94">
+        <is>
+          <t xml:space="preserve">Warren, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C94">
+        <v>1</v>
+      </c>
+      <c s="7" r="D94">
+        <v>0.0453479280688038</v>
+      </c>
+      <c s="7" r="E94">
+        <v>0.0940692178685775</v>
+      </c>
+      <c s="7" r="F94">
+        <v>0.117606123869172</v>
+      </c>
+      <c s="7" r="G94">
+        <v>0.15023429734463</v>
+      </c>
+      <c s="3" t="str" r="H94"/>
+      <c s="7" r="I94">
+        <v>0.207106638889981</v>
+      </c>
+      <c s="7" r="J94">
+        <v>0.224804548685146</v>
+      </c>
+    </row>
+    <row r="95" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A95">
+        <is>
+          <t xml:space="preserve">51191</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B95">
+        <is>
+          <t xml:space="preserve">Washington, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C95">
+        <v>2</v>
+      </c>
+      <c s="7" r="D95">
+        <v>0.057873013085097</v>
+      </c>
+      <c s="7" r="E95">
+        <v>0.0973937392303274</v>
+      </c>
+      <c s="7" r="F95">
+        <v>0.122353773888424</v>
+      </c>
+      <c s="7" r="G95">
+        <v>0.161021191389955</v>
+      </c>
+      <c s="3" t="str" r="H95"/>
+      <c s="7" r="I95">
+        <v>0.217299098689692</v>
+      </c>
+      <c s="7" r="J95">
+        <v>0.246503975870579</v>
+      </c>
+    </row>
+    <row r="96" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A96">
+        <is>
+          <t xml:space="preserve">51193</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B96">
+        <is>
+          <t xml:space="preserve">Westmoreland, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C96">
+        <v>6</v>
+      </c>
+      <c s="7" r="D96">
+        <v>0.0527269980359571</v>
+      </c>
+      <c s="7" r="E96">
+        <v>0.0881152188704922</v>
+      </c>
+      <c s="7" r="F96">
+        <v>0.109385234396931</v>
+      </c>
+      <c s="7" r="G96">
+        <v>0.133130081300813</v>
+      </c>
+      <c s="3" t="str" r="H96"/>
+      <c s="7" r="I96">
+        <v>0.14426125554851</v>
+      </c>
+      <c s="7" r="J96">
+        <v>0.165342855060847</v>
+      </c>
+    </row>
+    <row r="97" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A97">
+        <is>
+          <t xml:space="preserve">51195</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B97">
+        <is>
+          <t xml:space="preserve">Wise, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C97">
+        <v>7</v>
+      </c>
+      <c s="7" r="D97">
+        <v>0.040773871437487</v>
+      </c>
+      <c s="7" r="E97">
+        <v>0.0752439962742478</v>
+      </c>
+      <c s="7" r="F97">
+        <v>0.0858770205767919</v>
+      </c>
+      <c s="7" r="G97">
+        <v>0.108413452545733</v>
+      </c>
+      <c s="3" t="str" r="H97"/>
+      <c s="7" r="I97">
+        <v>0.127448237269166</v>
+      </c>
+      <c s="7" r="J97">
+        <v>0.146051978781056</v>
+      </c>
+    </row>
+    <row r="98" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A98">
+        <is>
+          <t xml:space="preserve">51197</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B98">
+        <is>
+          <t xml:space="preserve">Wythe, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C98">
+        <v>6</v>
+      </c>
+      <c s="7" r="D98">
+        <v>0.0617689472840891</v>
+      </c>
+      <c s="7" r="E98">
+        <v>0.0855140487365782</v>
+      </c>
+      <c s="7" r="F98">
+        <v>0.100414986264539</v>
+      </c>
+      <c s="7" r="G98">
+        <v>0.121159360917657</v>
+      </c>
+      <c s="3" t="str" r="H98"/>
+      <c s="7" r="I98">
+        <v>0.144931703810208</v>
+      </c>
+      <c s="7" r="J98">
+        <v>0.196101963419903</v>
+      </c>
+    </row>
+    <row r="99" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A99">
+        <is>
+          <t xml:space="preserve">51199</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B99">
+        <is>
+          <t xml:space="preserve">York, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C99">
+        <v>1</v>
+      </c>
+      <c s="7" r="D99">
+        <v>0.113999508357915</v>
+      </c>
+      <c s="7" r="E99">
+        <v>0.216318591318591</v>
+      </c>
+      <c s="7" r="F99">
+        <v>0.288801571709234</v>
+      </c>
+      <c s="7" r="G99">
+        <v>0.373589913735899</v>
+      </c>
+      <c s="3" t="str" r="H99"/>
+      <c s="7" r="I99">
+        <v>0.41149361078137</v>
+      </c>
+      <c s="7" r="J99">
+        <v>0.485373918941835</v>
+      </c>
+    </row>
+    <row r="100" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A100">
+        <is>
+          <t xml:space="preserve">51510</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B100">
+        <is>
+          <t xml:space="preserve">Alexandria, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C100">
+        <v>1</v>
+      </c>
+      <c s="7" r="D100">
+        <v>0.254630006016162</v>
+      </c>
+      <c s="7" r="E100">
+        <v>0.409414332690781</v>
+      </c>
+      <c s="7" r="F100">
+        <v>0.485457249433162</v>
+      </c>
+      <c s="7" r="G100">
+        <v>0.543006372088165</v>
+      </c>
+      <c s="3" t="str" r="H100"/>
+      <c s="7" r="I100">
+        <v>0.604928413062268</v>
+      </c>
+      <c s="7" r="J100">
+        <v>0.651838814884016</v>
+      </c>
+    </row>
+    <row r="101" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A101">
+        <is>
+          <t xml:space="preserve">51515</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B101">
+        <is>
+          <t xml:space="preserve">Bedford, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C101">
+        <v>2</v>
+      </c>
+      <c s="7" r="D101">
+        <v>0.0864264426984557</v>
+      </c>
+      <c s="7" r="E101">
+        <v>0.131643700787402</v>
+      </c>
+      <c s="7" r="F101">
+        <v>0.149597238204833</v>
+      </c>
+      <c s="7" r="G101">
+        <v>0.152202937249666</v>
+      </c>
+      <c s="3" t="str" r="H101"/>
+      <c s="7" r="I101">
+        <v>0.212722298221614</v>
+      </c>
+      <c s="9" t="str" r="J101"/>
+    </row>
+    <row r="102" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A102">
+        <is>
+          <t xml:space="preserve">51520</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B102">
+        <is>
+          <t xml:space="preserve">Bristol, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C102">
+        <v>2</v>
+      </c>
+      <c s="7" r="D102">
+        <v>0.0684736091298146</v>
+      </c>
+      <c s="7" r="E102">
+        <v>0.0974811083123426</v>
+      </c>
+      <c s="7" r="F102">
+        <v>0.138429587027718</v>
+      </c>
+      <c s="7" r="G102">
+        <v>0.170305676855895</v>
+      </c>
+      <c s="3" t="str" r="H102"/>
+      <c s="7" r="I102">
+        <v>0.19234465086483</v>
+      </c>
+      <c s="7" r="J102">
+        <v>0.234298730881874</v>
+      </c>
+    </row>
+    <row r="103" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A103">
+        <is>
+          <t xml:space="preserve">51530</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B103">
+        <is>
+          <t xml:space="preserve">Buena Vista, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C103">
+        <v>6</v>
+      </c>
+      <c s="7" r="D103">
+        <v>0.0631394329143525</v>
+      </c>
+      <c s="7" r="E103">
+        <v>0.0706150341685649</v>
+      </c>
+      <c s="7" r="F103">
+        <v>0.0874851013110846</v>
+      </c>
+      <c s="7" r="G103">
+        <v>0.104705882352941</v>
+      </c>
+      <c s="3" t="str" r="H103"/>
+      <c s="7" r="I103">
+        <v>0.152613240418118</v>
+      </c>
+      <c s="7" r="J103">
+        <v>0.194919394235467</v>
+      </c>
+    </row>
+    <row r="104" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A104">
+        <is>
+          <t xml:space="preserve">51540</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B104">
+        <is>
+          <t xml:space="preserve">Charlottesville, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C104">
+        <v>3</v>
+      </c>
+      <c s="7" r="D104">
+        <v>0.226980422045444</v>
+      </c>
+      <c s="7" r="E104">
+        <v>0.30951406882131</v>
+      </c>
+      <c s="7" r="F104">
+        <v>0.340922531046718</v>
+      </c>
+      <c s="7" r="G104">
+        <v>0.407687598390764</v>
+      </c>
+      <c s="3" t="str" r="H104"/>
+      <c s="7" r="I104">
+        <v>0.480744388826094</v>
+      </c>
+      <c s="7" r="J104">
+        <v>0.579745320344449</v>
+      </c>
+    </row>
+    <row r="105" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A105">
+        <is>
+          <t xml:space="preserve">51550</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B105">
+        <is>
+          <t xml:space="preserve">Chesapeake, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C105">
+        <v>1</v>
+      </c>
+      <c s="7" r="D105">
+        <v>0.0534450160488942</v>
+      </c>
+      <c s="7" r="E105">
+        <v>0.114997408553345</v>
+      </c>
+      <c s="7" r="F105">
+        <v>0.168958763545015</v>
+      </c>
+      <c s="7" r="G105">
+        <v>0.246561698194394</v>
+      </c>
+      <c s="3" t="str" r="H105"/>
+      <c s="7" r="I105">
+        <v>0.283920861079931</v>
+      </c>
+      <c s="7" r="J105">
+        <v>0.354853647828623</v>
+      </c>
+    </row>
+    <row r="106" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A106">
+        <is>
+          <t xml:space="preserve">51560</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B106">
+        <is>
+          <t xml:space="preserve">Clifton Forge, VA        </t>
+        </is>
+      </c>
+      <c s="6" t="str" r="C106"/>
+      <c s="7" r="D106">
+        <v>0.0722154222766218</v>
+      </c>
+      <c s="7" r="E106">
+        <v>0.102772754671489</v>
+      </c>
+      <c s="7" r="F106">
+        <v>0.0888423571642238</v>
+      </c>
+      <c s="7" r="G106">
+        <v>0.0961414790996785</v>
+      </c>
+      <c s="3" t="str" r="H106"/>
+      <c s="9" t="str" r="I106"/>
+      <c s="9" t="str" r="J106"/>
+    </row>
+    <row r="107" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A107">
+        <is>
+          <t xml:space="preserve">51570</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B107">
+        <is>
+          <t xml:space="preserve">Colonial Heights, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C107">
+        <v>1</v>
+      </c>
+      <c s="7" r="D107">
+        <v>0.0973877452750692</v>
+      </c>
+      <c s="7" r="E107">
+        <v>0.161426192575179</v>
+      </c>
+      <c s="7" r="F107">
+        <v>0.166877142341692</v>
+      </c>
+      <c s="7" r="G107">
+        <v>0.189635974304069</v>
+      </c>
+      <c s="3" t="str" r="H107"/>
+      <c s="7" r="I107">
+        <v>0.192217376719222</v>
+      </c>
+      <c s="7" r="J107">
+        <v>0.259445448118765</v>
+      </c>
+    </row>
+    <row r="108" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A108">
+        <is>
+          <t xml:space="preserve">51580</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B108">
+        <is>
+          <t xml:space="preserve">Covington, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C108">
+        <v>6</v>
+      </c>
+      <c s="7" r="D108">
+        <v>0.042835288118307</v>
+      </c>
+      <c s="7" r="E108">
+        <v>0.0512249443207127</v>
+      </c>
+      <c s="7" r="F108">
+        <v>0.0698105436573311</v>
+      </c>
+      <c s="7" r="G108">
+        <v>0.063768115942029</v>
+      </c>
+      <c s="3" t="str" r="H108"/>
+      <c s="7" r="I108">
+        <v>0.0846665025842973</v>
+      </c>
+      <c s="7" r="J108">
+        <v>0.138125613346418</v>
+      </c>
+    </row>
+    <row r="109" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A109">
+        <is>
+          <t xml:space="preserve">51590</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B109">
+        <is>
+          <t xml:space="preserve">Danville, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C109">
+        <v>4</v>
+      </c>
+      <c s="7" r="D109">
+        <v>0.0792274486454302</v>
+      </c>
+      <c s="7" r="E109">
+        <v>0.105004637103699</v>
+      </c>
+      <c s="7" r="F109">
+        <v>0.1241529994192</v>
+      </c>
+      <c s="7" r="G109">
+        <v>0.138781780937462</v>
+      </c>
+      <c s="3" t="str" r="H109"/>
+      <c s="7" r="I109">
+        <v>0.164181621913372</v>
+      </c>
+      <c s="7" r="J109">
+        <v>0.181050212880989</v>
+      </c>
+    </row>
+    <row r="110" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A110">
+        <is>
+          <t xml:space="preserve">51595</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B110">
+        <is>
+          <t xml:space="preserve">Emporia, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C110">
+        <v>6</v>
+      </c>
+      <c s="7" r="D110">
+        <v>0.0694078947368421</v>
+      </c>
+      <c s="7" r="E110">
+        <v>0.0790067720090294</v>
+      </c>
+      <c s="7" r="F110">
+        <v>0.134307389716212</v>
+      </c>
+      <c s="7" r="G110">
+        <v>0.141721854304636</v>
+      </c>
+      <c s="3" t="str" r="H110"/>
+      <c s="7" r="I110">
+        <v>0.132707434661253</v>
+      </c>
+      <c s="7" r="J110">
+        <v>0.123434237995825</v>
+      </c>
+    </row>
+    <row r="111" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A111">
+        <is>
+          <t xml:space="preserve">51600</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B111">
+        <is>
+          <t xml:space="preserve">Fairfax, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C111">
+        <v>1</v>
+      </c>
+      <c s="7" r="D111">
+        <v>0.244625648628614</v>
+      </c>
+      <c s="7" r="E111">
+        <v>0.334841235319704</v>
+      </c>
+      <c s="7" r="F111">
+        <v>0.413371784169386</v>
+      </c>
+      <c s="7" r="G111">
+        <v>0.456510314019183</v>
+      </c>
+      <c s="3" t="str" r="H111"/>
+      <c s="7" r="I111">
+        <v>0.531963039788799</v>
+      </c>
+      <c s="7" r="J111">
+        <v>0.613757260776521</v>
+      </c>
+    </row>
+    <row r="112" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A112">
+        <is>
+          <t xml:space="preserve">51610</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B112">
+        <is>
+          <t xml:space="preserve">Falls Church, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C112">
+        <v>1</v>
+      </c>
+      <c s="7" r="D112">
+        <v>0.250120019203072</v>
+      </c>
+      <c s="7" r="E112">
+        <v>0.44939331163066</v>
+      </c>
+      <c s="7" r="F112">
+        <v>0.527884206045126</v>
+      </c>
+      <c s="7" r="G112">
+        <v>0.637459807073955</v>
+      </c>
+      <c s="3" t="str" r="H112"/>
+      <c s="7" r="I112">
+        <v>0.727883001678255</v>
+      </c>
+      <c s="7" r="J112">
+        <v>0.786987704918033</v>
+      </c>
+    </row>
+    <row r="113" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A113">
+        <is>
+          <t xml:space="preserve">51620</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B113">
+        <is>
+          <t xml:space="preserve">Franklin, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C113">
+        <v>6</v>
+      </c>
+      <c s="7" r="D113">
+        <v>0.121500264131009</v>
+      </c>
+      <c s="7" r="E113">
+        <v>0.108315863032844</v>
+      </c>
+      <c s="7" r="F113">
+        <v>0.143798449612403</v>
+      </c>
+      <c s="7" r="G113">
+        <v>0.164126196384261</v>
+      </c>
+      <c s="3" t="str" r="H113"/>
+      <c s="7" r="I113">
+        <v>0.208488063660477</v>
+      </c>
+      <c s="7" r="J113">
+        <v>0.210435084070029</v>
+      </c>
+    </row>
+    <row r="114" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A114">
+        <is>
+          <t xml:space="preserve">51630</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B114">
+        <is>
+          <t xml:space="preserve">Fredericksburg, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C114">
+        <v>1</v>
+      </c>
+      <c s="7" r="D114">
+        <v>0.182805548285789</v>
+      </c>
+      <c s="7" r="E114">
+        <v>0.222159475943077</v>
+      </c>
+      <c s="7" r="F114">
+        <v>0.260658391797086</v>
+      </c>
+      <c s="7" r="G114">
+        <v>0.305325127107305</v>
+      </c>
+      <c s="3" t="str" r="H114"/>
+      <c s="7" r="I114">
+        <v>0.333078686019863</v>
+      </c>
+      <c s="7" r="J114">
+        <v>0.42678740530303</v>
+      </c>
+    </row>
+    <row r="115" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A115">
+        <is>
+          <t xml:space="preserve">51640</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B115">
+        <is>
+          <t xml:space="preserve">Galax, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C115">
+        <v>7</v>
+      </c>
+      <c s="7" r="D115">
+        <v>0.0791710945802338</v>
+      </c>
+      <c s="7" r="E115">
+        <v>0.0754673436418186</v>
+      </c>
+      <c s="7" r="F115">
+        <v>0.112532523850824</v>
+      </c>
+      <c s="7" r="G115">
+        <v>0.110832287745713</v>
+      </c>
+      <c s="3" t="str" r="H115"/>
+      <c s="7" r="I115">
+        <v>0.150363011081391</v>
+      </c>
+      <c s="7" r="J115">
+        <v>0.178704720087816</v>
+      </c>
+    </row>
+    <row r="116" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A116">
+        <is>
+          <t xml:space="preserve">51650</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B116">
+        <is>
+          <t xml:space="preserve">Hampton, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C116">
+        <v>1</v>
+      </c>
+      <c s="7" r="D116">
+        <v>0.115280956013221</v>
+      </c>
+      <c s="7" r="E116">
+        <v>0.154047853162897</v>
+      </c>
+      <c s="7" r="F116">
+        <v>0.190697955727592</v>
+      </c>
+      <c s="7" r="G116">
+        <v>0.217762254398391</v>
+      </c>
+      <c s="3" t="str" r="H116"/>
+      <c s="7" r="I116">
+        <v>0.225765377984608</v>
+      </c>
+      <c s="7" r="J116">
+        <v>0.273145824696153</v>
+      </c>
+    </row>
+    <row r="117" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A117">
+        <is>
+          <t xml:space="preserve">51660</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B117">
+        <is>
+          <t xml:space="preserve">Harrisonburg, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C117">
+        <v>3</v>
+      </c>
+      <c s="7" r="D117">
+        <v>0.157799442896936</v>
+      </c>
+      <c s="7" r="E117">
+        <v>0.232565862297985</v>
+      </c>
+      <c s="7" r="F117">
+        <v>0.286766223935035</v>
+      </c>
+      <c s="7" r="G117">
+        <v>0.312184777624943</v>
+      </c>
+      <c s="3" t="str" r="H117"/>
+      <c s="7" r="I117">
+        <v>0.356408467085369</v>
+      </c>
+      <c s="7" r="J117">
+        <v>0.345487419014615</v>
+      </c>
+    </row>
+    <row r="118" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A118">
+        <is>
+          <t xml:space="preserve">51670</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B118">
+        <is>
+          <t xml:space="preserve">Hopewell, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C118">
+        <v>1</v>
+      </c>
+      <c s="7" r="D118">
+        <v>0.0782234007292012</v>
+      </c>
+      <c s="7" r="E118">
+        <v>0.0987645241947345</v>
+      </c>
+      <c s="7" r="F118">
+        <v>0.100258644160087</v>
+      </c>
+      <c s="7" r="G118">
+        <v>0.102003770159883</v>
+      </c>
+      <c s="3" t="str" r="H118"/>
+      <c s="7" r="I118">
+        <v>0.100651554228315</v>
+      </c>
+      <c s="7" r="J118">
+        <v>0.114040303931285</v>
+      </c>
+    </row>
+    <row r="119" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A119">
+        <is>
+          <t xml:space="preserve">51678</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B119">
+        <is>
+          <t xml:space="preserve">Lexington, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C119">
+        <v>6</v>
+      </c>
+      <c s="7" r="D119">
+        <v>0.259237363287023</v>
+      </c>
+      <c s="7" r="E119">
+        <v>0.287312334412717</v>
+      </c>
+      <c s="7" r="F119">
+        <v>0.32141746969226</v>
+      </c>
+      <c s="7" r="G119">
+        <v>0.426179604261796</v>
+      </c>
+      <c s="3" t="str" r="H119"/>
+      <c s="7" r="I119">
+        <v>0.468952380952381</v>
+      </c>
+      <c s="7" r="J119">
+        <v>0.605081555834379</v>
+      </c>
+    </row>
+    <row r="120" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A120">
+        <is>
+          <t xml:space="preserve">51680</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B120">
+        <is>
+          <t xml:space="preserve">Lynchburg, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C120">
+        <v>2</v>
+      </c>
+      <c s="7" r="D120">
+        <v>0.128343123420733</v>
+      </c>
+      <c s="7" r="E120">
+        <v>0.187326642795905</v>
+      </c>
+      <c s="7" r="F120">
+        <v>0.217401954780393</v>
+      </c>
+      <c s="7" r="G120">
+        <v>0.252438366906827</v>
+      </c>
+      <c s="3" t="str" r="H120"/>
+      <c s="7" r="I120">
+        <v>0.307129253573805</v>
+      </c>
+      <c s="7" r="J120">
+        <v>0.382771874293466</v>
+      </c>
+    </row>
+    <row r="121" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A121">
+        <is>
+          <t xml:space="preserve">51683</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B121">
+        <is>
+          <t xml:space="preserve">Manassas, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C121">
+        <v>1</v>
+      </c>
+      <c s="9" t="str" r="D121"/>
+      <c s="7" r="E121">
+        <v>0.235939158118146</v>
+      </c>
+      <c s="7" r="F121">
+        <v>0.25824998502725</v>
+      </c>
+      <c s="7" r="G121">
+        <v>0.281385690013215</v>
+      </c>
+      <c s="3" t="str" r="H121"/>
+      <c s="7" r="I121">
+        <v>0.278640693383678</v>
+      </c>
+      <c s="7" r="J121">
+        <v>0.321087993064586</v>
+      </c>
+    </row>
+    <row r="122" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A122">
+        <is>
+          <t xml:space="preserve">51685</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B122">
+        <is>
+          <t xml:space="preserve">Manassas Park, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C122">
+        <v>1</v>
+      </c>
+      <c s="9" t="str" r="D122"/>
+      <c s="7" r="E122">
+        <v>0.053474223503042</v>
+      </c>
+      <c s="7" r="F122">
+        <v>0.0791720569210867</v>
+      </c>
+      <c s="7" r="G122">
+        <v>0.203245501285347</v>
+      </c>
+      <c s="3" t="str" r="H122"/>
+      <c s="7" r="I122">
+        <v>0.220230040595399</v>
+      </c>
+      <c s="7" r="J122">
+        <v>0.256077940650697</v>
+      </c>
+    </row>
+    <row r="123" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A123">
+        <is>
+          <t xml:space="preserve">51690</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B123">
+        <is>
+          <t xml:space="preserve">Martinsville, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C123">
+        <v>4</v>
+      </c>
+      <c s="7" r="D123">
+        <v>0.116904652233994</v>
+      </c>
+      <c s="7" r="E123">
+        <v>0.150317269765049</v>
+      </c>
+      <c s="7" r="F123">
+        <v>0.158206579412805</v>
+      </c>
+      <c s="7" r="G123">
+        <v>0.16600571797473</v>
+      </c>
+      <c s="3" t="str" r="H123"/>
+      <c s="7" r="I123">
+        <v>0.179311041519345</v>
+      </c>
+      <c s="7" r="J123">
+        <v>0.221236951397463</v>
+      </c>
+    </row>
+    <row r="124" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A124">
+        <is>
+          <t xml:space="preserve">51700</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B124">
+        <is>
+          <t xml:space="preserve">Newport News, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C124">
+        <v>1</v>
+      </c>
+      <c s="7" r="D124">
+        <v>0.115748067097708</v>
+      </c>
+      <c s="7" r="E124">
+        <v>0.162479997022813</v>
+      </c>
+      <c s="7" r="F124">
+        <v>0.184437227753578</v>
+      </c>
+      <c s="7" r="G124">
+        <v>0.198849958667551</v>
+      </c>
+      <c s="3" t="str" r="H124"/>
+      <c s="7" r="I124">
+        <v>0.2394946784883</v>
+      </c>
+      <c s="7" r="J124">
+        <v>0.281217226282233</v>
+      </c>
+    </row>
+    <row r="125" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A125">
+        <is>
+          <t xml:space="preserve">51710</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B125">
+        <is>
+          <t xml:space="preserve">Norfolk, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C125">
+        <v>1</v>
+      </c>
+      <c s="7" r="D125">
+        <v>0.0942777618884851</v>
+      </c>
+      <c s="7" r="E125">
+        <v>0.124797892965578</v>
+      </c>
+      <c s="7" r="F125">
+        <v>0.168249604553335</v>
+      </c>
+      <c s="7" r="G125">
+        <v>0.19595883422792</v>
+      </c>
+      <c s="3" t="str" r="H125"/>
+      <c s="7" r="I125">
+        <v>0.254081632653061</v>
+      </c>
+      <c s="7" r="J125">
+        <v>0.318024714422974</v>
+      </c>
+    </row>
+    <row r="126" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A126">
+        <is>
+          <t xml:space="preserve">51720</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B126">
+        <is>
+          <t xml:space="preserve">Norton, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C126">
+        <v>7</v>
+      </c>
+      <c s="7" r="D126">
+        <v>0.0853183196188826</v>
+      </c>
+      <c s="7" r="E126">
+        <v>0.104419101924448</v>
+      </c>
+      <c s="7" r="F126">
+        <v>0.115613382899628</v>
+      </c>
+      <c s="7" r="G126">
+        <v>0.140337711069418</v>
+      </c>
+      <c s="3" t="str" r="H126"/>
+      <c s="7" r="I126">
+        <v>0.201989288446825</v>
+      </c>
+      <c s="7" r="J126">
+        <v>0.218679669917479</v>
+      </c>
+    </row>
+    <row r="127" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A127">
+        <is>
+          <t xml:space="preserve">51730</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B127">
+        <is>
+          <t xml:space="preserve">Petersburg, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C127">
+        <v>1</v>
+      </c>
+      <c s="7" r="D127">
+        <v>0.095032619304464</v>
+      </c>
+      <c s="7" r="E127">
+        <v>0.127221508761755</v>
+      </c>
+      <c s="7" r="F127">
+        <v>0.13539201925005</v>
+      </c>
+      <c s="7" r="G127">
+        <v>0.147965364080937</v>
+      </c>
+      <c s="3" t="str" r="H127"/>
+      <c s="7" r="I127">
+        <v>0.143397096105093</v>
+      </c>
+      <c s="7" r="J127">
+        <v>0.220378014338475</v>
+      </c>
+    </row>
+    <row r="128" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A128">
+        <is>
+          <t xml:space="preserve">51735</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B128">
+        <is>
+          <t xml:space="preserve">Poquoson, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C128">
+        <v>1</v>
+      </c>
+      <c s="9" t="str" r="D128"/>
+      <c s="7" r="E128">
+        <v>0.205648369132856</v>
+      </c>
+      <c s="7" r="F128">
+        <v>0.294159342217182</v>
+      </c>
+      <c s="7" r="G128">
+        <v>0.315633457919835</v>
+      </c>
+      <c s="3" t="str" r="H128"/>
+      <c s="7" r="I128">
+        <v>0.35087091386304</v>
+      </c>
+      <c s="7" r="J128">
+        <v>0.409075283602613</v>
+      </c>
+    </row>
+    <row r="129" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A129">
+        <is>
+          <t xml:space="preserve">51740</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B129">
+        <is>
+          <t xml:space="preserve">Portsmouth, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C129">
+        <v>1</v>
+      </c>
+      <c s="7" r="D129">
+        <v>0.0624945991254904</v>
+      </c>
+      <c s="7" r="E129">
+        <v>0.0993497530391978</v>
+      </c>
+      <c s="7" r="F129">
+        <v>0.116197509501591</v>
+      </c>
+      <c s="7" r="G129">
+        <v>0.138101593781895</v>
+      </c>
+      <c s="3" t="str" r="H129"/>
+      <c s="7" r="I129">
+        <v>0.189748258897195</v>
+      </c>
+      <c s="7" r="J129">
+        <v>0.209796391124116</v>
+      </c>
+    </row>
+    <row r="130" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A130">
+        <is>
+          <t xml:space="preserve">51750</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B130">
+        <is>
+          <t xml:space="preserve">Radford, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C130">
+        <v>3</v>
+      </c>
+      <c s="7" r="D130">
+        <v>0.148788277287244</v>
+      </c>
+      <c s="7" r="E130">
+        <v>0.212337878284004</v>
+      </c>
+      <c s="7" r="F130">
+        <v>0.290552302579522</v>
+      </c>
+      <c s="7" r="G130">
+        <v>0.340526160212829</v>
+      </c>
+      <c s="3" t="str" r="H130"/>
+      <c s="7" r="I130">
+        <v>0.294683844217385</v>
+      </c>
+      <c s="7" r="J130">
+        <v>0.404389134216513</v>
+      </c>
+    </row>
+    <row r="131" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A131">
+        <is>
+          <t xml:space="preserve">51760</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B131">
+        <is>
+          <t xml:space="preserve">Richmond, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C131">
+        <v>1</v>
+      </c>
+      <c s="7" r="D131">
+        <v>0.117321101701555</v>
+      </c>
+      <c s="7" r="E131">
+        <v>0.197783524196528</v>
+      </c>
+      <c s="7" r="F131">
+        <v>0.242413208893116</v>
+      </c>
+      <c s="7" r="G131">
+        <v>0.294512076543114</v>
+      </c>
+      <c s="3" t="str" r="H131"/>
+      <c s="7" r="I131">
+        <v>0.337735920997445</v>
+      </c>
+      <c s="7" r="J131">
+        <v>0.430857714428607</v>
+      </c>
+    </row>
+    <row r="132" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A132">
+        <is>
+          <t xml:space="preserve">51770</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B132">
+        <is>
+          <t xml:space="preserve">Roanoke, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C132">
+        <v>2</v>
+      </c>
+      <c s="7" r="D132">
+        <v>0.0928915373687803</v>
+      </c>
+      <c s="7" r="E132">
+        <v>0.125430737422467</v>
+      </c>
+      <c s="7" r="F132">
+        <v>0.156495330650672</v>
+      </c>
+      <c s="7" r="G132">
+        <v>0.187352308935405</v>
+      </c>
+      <c s="3" t="str" r="H132"/>
+      <c s="7" r="I132">
+        <v>0.229208834385046</v>
+      </c>
+      <c s="7" r="J132">
+        <v>0.268066734335015</v>
+      </c>
+    </row>
+    <row r="133" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A133">
+        <is>
+          <t xml:space="preserve">51775</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B133">
+        <is>
+          <t xml:space="preserve">Salem, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C133">
+        <v>2</v>
+      </c>
+      <c s="7" r="D133">
+        <v>0.109888344445337</v>
+      </c>
+      <c s="7" r="E133">
+        <v>0.153508480212837</v>
+      </c>
+      <c s="7" r="F133">
+        <v>0.17849635217015</v>
+      </c>
+      <c s="7" r="G133">
+        <v>0.198114906645855</v>
+      </c>
+      <c s="3" t="str" r="H133"/>
+      <c s="7" r="I133">
+        <v>0.30010333718315</v>
+      </c>
+      <c s="7" r="J133">
+        <v>0.321538909938793</v>
+      </c>
+    </row>
+    <row r="134" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A134">
+        <is>
+          <t xml:space="preserve">51790</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B134">
+        <is>
+          <t xml:space="preserve">Staunton, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C134">
+        <v>3</v>
+      </c>
+      <c s="7" r="D134">
+        <v>0.114101854414614</v>
+      </c>
+      <c s="7" r="E134">
+        <v>0.164629813841125</v>
+      </c>
+      <c s="7" r="F134">
+        <v>0.177835661851764</v>
+      </c>
+      <c s="7" r="G134">
+        <v>0.203795725318805</v>
+      </c>
+      <c s="3" t="str" r="H134"/>
+      <c s="7" r="I134">
+        <v>0.2975392825378</v>
+      </c>
+      <c s="7" r="J134">
+        <v>0.303219790466787</v>
+      </c>
+    </row>
+    <row r="135" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A135">
+        <is>
+          <t xml:space="preserve">51800</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B135">
+        <is>
+          <t xml:space="preserve">Suffolk, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C135">
+        <v>1</v>
+      </c>
+      <c s="7" r="D135">
+        <v>0.0919986495611074</v>
+      </c>
+      <c s="7" r="E135">
+        <v>0.0991205895966105</v>
+      </c>
+      <c s="7" r="F135">
+        <v>0.122588137208194</v>
+      </c>
+      <c s="7" r="G135">
+        <v>0.173059382650857</v>
+      </c>
+      <c s="3" t="str" r="H135"/>
+      <c s="7" r="I135">
+        <v>0.257467942929384</v>
+      </c>
+      <c s="7" r="J135">
+        <v>0.309886471144749</v>
+      </c>
+    </row>
+    <row r="136" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A136">
+        <is>
+          <t xml:space="preserve">51810</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B136">
+        <is>
+          <t xml:space="preserve">Virginia Beach, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C136">
+        <v>1</v>
+      </c>
+      <c s="7" r="D136">
+        <v>0.137479791743575</v>
+      </c>
+      <c s="7" r="E136">
+        <v>0.223696897510067</v>
+      </c>
+      <c s="7" r="F136">
+        <v>0.254964870591667</v>
+      </c>
+      <c s="7" r="G136">
+        <v>0.281100563708852</v>
+      </c>
+      <c s="3" t="str" r="H136"/>
+      <c s="7" r="I136">
+        <v>0.322809267124982</v>
+      </c>
+      <c s="7" r="J136">
+        <v>0.386173326546195</v>
+      </c>
+    </row>
+    <row r="137" ht="20.65" customHeight="0">
+      <c s="5" t="inlineStr" r="A137">
+        <is>
+          <t xml:space="preserve">51820</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B137">
+        <is>
+          <t xml:space="preserve">Waynesboro, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C137">
+        <v>3</v>
+      </c>
+      <c s="7" r="D137">
+        <v>0.145411203814064</v>
+      </c>
+      <c s="7" r="E137">
+        <v>0.167066180302241</v>
+      </c>
+      <c s="7" r="F137">
+        <v>0.181854294112974</v>
+      </c>
+      <c s="7" r="G137">
+        <v>0.205893407502067</v>
+      </c>
+      <c s="3" t="str" r="H137"/>
+      <c s="7" r="I137">
+        <v>0.222508172775962</v>
+      </c>
+      <c s="7" r="J137">
+        <v>0.279354050054687</v>
+      </c>
+    </row>
+    <row r="138" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A138">
+        <is>
+          <t xml:space="preserve">51830</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B138">
+        <is>
+          <t xml:space="preserve">Williamsburg, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C138">
+        <v>1</v>
+      </c>
+      <c s="7" r="D138">
+        <v>0.323215289488477</v>
+      </c>
+      <c s="7" r="E138">
+        <v>0.403348554033486</v>
+      </c>
+      <c s="7" r="F138">
+        <v>0.428971028971029</v>
+      </c>
+      <c s="7" r="G138">
+        <v>0.450186567164179</v>
+      </c>
+      <c s="3" t="str" r="H138"/>
+      <c s="7" r="I138">
+        <v>0.495461984823687</v>
+      </c>
+      <c s="7" r="J138">
+        <v>0.504395880432052</v>
+      </c>
+    </row>
+    <row r="139" ht="20.6" customHeight="0">
+      <c s="5" t="inlineStr" r="A139">
+        <is>
+          <t xml:space="preserve">51840</t>
+        </is>
+      </c>
+      <c s="5" t="inlineStr" r="B139">
+        <is>
+          <t xml:space="preserve">Winchester, VA        </t>
+        </is>
+      </c>
+      <c s="8" r="C139">
+        <v>3</v>
+      </c>
+      <c s="7" r="D139">
+        <v>0.0825666973321067</v>
+      </c>
+      <c s="7" r="E139">
+        <v>0.140110323089047</v>
+      </c>
+      <c s="7" r="F139">
+        <v>0.187784365090307</v>
+      </c>
+      <c s="7" r="G139">
+        <v>0.237202925045704</v>
+      </c>
+      <c s="3" t="str" r="H139"/>
+      <c s="7" r="I139">
+        <v>0.29522700814901</v>
+      </c>
+      <c s="7" r="J139">
+        <v>0.336962294211365</v>
+      </c>
+    </row>
+    <row r="140" ht="0.05" customHeight="1"/>
+    <row r="141" ht="5.95" customHeight="1"/>
+    <row r="142" ht="222.75" customHeight="1">
+      <c s="10" t="inlineStr" r="A142">
         <is>
           <r>
             <rPr>
@@ -778,7 +5186,6 @@
         </is>
       </c>
     </row>
-    <row r="13" ht="14.75" customHeight="1"/>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:J2"/>
@@ -789,10 +5196,140 @@
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="G121:H121"/>
+    <mergeCell ref="G122:H122"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G125:H125"/>
+    <mergeCell ref="G126:H126"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="A142:G142"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId7"/>
+    <hyperlink ref="A142" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="1" footer="1"/>
   <pageSetup paperSize="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
